--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/99_Dissertation/04_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAE99A-1469-AF40-82FE-809909243E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E2E891-B5C7-AD4F-9567-C700E8E29DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,14 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -569,10 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,23 +734,23 @@
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>2.76</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>1.23</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <v>156</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>402</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="11">
         <v>60</v>
       </c>
       <c r="AH2">
@@ -777,19 +776,19 @@
       <c r="G3">
         <v>6.8</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>2.92</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>1.29</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <v>165</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>376</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <v>63</v>
       </c>
       <c r="AH3">
@@ -815,19 +814,19 @@
       <c r="G4">
         <v>3.85</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>2.63</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>1.38</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <v>149</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>416</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <v>68</v>
       </c>
       <c r="AH4">
@@ -853,19 +852,19 @@
       <c r="G5">
         <v>7.7</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>3.01</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>1.24</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <v>171</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>504</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="11">
         <v>61</v>
       </c>
       <c r="AH5">
@@ -894,19 +893,19 @@
       <c r="G6">
         <v>5.3</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>2.72</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>1.21</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <v>154</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>500</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="11">
         <v>59</v>
       </c>
       <c r="AH6">
@@ -932,19 +931,19 @@
       <c r="G7">
         <v>7.7</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>2.82</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>1.34</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <v>160</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>512</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="11">
         <v>66</v>
       </c>
       <c r="AH7">
@@ -970,19 +969,19 @@
       <c r="G8">
         <v>8.48</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>2.7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>1.42</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <v>153</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>514</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="11">
         <v>69</v>
       </c>
       <c r="AH8">
@@ -1008,19 +1007,19 @@
       <c r="G9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>2.69</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>1.33</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <v>152</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>416</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="11">
         <v>65</v>
       </c>
       <c r="AH9">
@@ -1052,13 +1051,13 @@
       <c r="I10" s="2">
         <v>1.31</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <v>182</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>433</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="11">
         <v>64</v>
       </c>
       <c r="AH10">
@@ -1093,13 +1092,13 @@
       <c r="I11" s="2">
         <v>1.33</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <v>181</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>495</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <v>65</v>
       </c>
       <c r="AH11">
@@ -1131,13 +1130,13 @@
       <c r="I12" s="2">
         <v>1.6</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <v>187</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>470</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11">
         <v>78</v>
       </c>
       <c r="AH12">
@@ -1169,13 +1168,13 @@
       <c r="I13" s="2">
         <v>1.29</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <v>167</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>348</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="11">
         <v>63</v>
       </c>
       <c r="AH13">
@@ -1207,13 +1206,13 @@
       <c r="I14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <v>148</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>329</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="11">
         <v>55</v>
       </c>
       <c r="AH14">
@@ -1245,13 +1244,13 @@
       <c r="I15" s="2">
         <v>1.17</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <v>128</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>370</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="11">
         <v>57</v>
       </c>
       <c r="AH15">
@@ -1286,13 +1285,13 @@
       <c r="I16" s="2">
         <v>1.21</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <v>112</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>414</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="11">
         <v>59</v>
       </c>
       <c r="AH16">
@@ -1324,13 +1323,13 @@
       <c r="I17" s="2">
         <v>1.32</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <v>137</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>461</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="11">
         <v>65</v>
       </c>
       <c r="AH17">
@@ -1362,13 +1361,13 @@
       <c r="I18" s="2">
         <v>1.28</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <v>156</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>437</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="11">
         <v>63</v>
       </c>
       <c r="AH18">
@@ -1400,13 +1399,13 @@
       <c r="I19" s="2">
         <v>1.26</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>184</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>434</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>62</v>
       </c>
       <c r="AH19">
@@ -1438,13 +1437,13 @@
       <c r="I20" s="2">
         <v>1.61</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <v>200</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>542</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <v>79</v>
       </c>
       <c r="AB20">
@@ -1503,13 +1502,13 @@
       <c r="N21" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <v>189</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>497</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="11">
         <v>71</v>
       </c>
       <c r="AB21">
@@ -1559,13 +1558,13 @@
       <c r="I22" s="2">
         <v>1.29</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <v>184</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>430</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="11">
         <v>63</v>
       </c>
       <c r="U22">
@@ -1621,13 +1620,13 @@
       <c r="I23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <v>161</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="11">
         <v>387</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="11">
         <v>55</v>
       </c>
       <c r="AB23">
@@ -1677,13 +1676,13 @@
       <c r="I24" s="2">
         <v>1.18</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>143</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>335</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="11">
         <v>58</v>
       </c>
       <c r="AB24">
@@ -1727,19 +1726,19 @@
       <c r="G25">
         <v>5.54</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="2">
         <v>1.32</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <v>142</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="11">
         <v>405</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="11">
         <v>65</v>
       </c>
       <c r="AB25">
@@ -1786,7 +1785,7 @@
       <c r="H26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="2">
         <v>1.5576000000000001</v>
       </c>
       <c r="M26">
@@ -1795,13 +1794,13 @@
       <c r="N26" s="2">
         <v>0.55679999999999996</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <v>142</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>459</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="11">
         <v>76</v>
       </c>
       <c r="AB26">
@@ -1848,7 +1847,7 @@
       <c r="H27" s="2">
         <v>3.35</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="2">
         <v>2.31</v>
       </c>
       <c r="M27">
@@ -1857,13 +1856,13 @@
       <c r="N27" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <v>190</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="11">
         <v>554</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="11">
         <v>113</v>
       </c>
       <c r="AB27">
@@ -1888,95 +1887,95 @@
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+    <row r="28" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>1847</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>8025</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>24</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>16</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>9.9860000000000007</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>17.78</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="12">
         <v>3.89</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="13">
         <v>0.71920000000000006</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="12">
         <v>1026</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <v>272</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="12">
         <v>625</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="12">
         <v>120</v>
       </c>
-      <c r="S28" s="14">
+      <c r="S28" s="12">
         <v>231</v>
       </c>
-      <c r="T28" s="14">
+      <c r="T28" s="12">
         <v>89</v>
       </c>
-      <c r="U28" s="14">
+      <c r="U28" s="12">
         <v>2591</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="12">
         <v>0</v>
       </c>
-      <c r="W28" s="14">
+      <c r="W28" s="12">
         <v>2186</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="12">
         <v>0</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="12">
         <v>622</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z28" s="12">
         <v>5691</v>
       </c>
-      <c r="AA28" s="14">
+      <c r="AA28" s="12">
         <v>164</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AB28" s="12">
         <v>3701</v>
       </c>
-      <c r="AC28" s="14">
+      <c r="AC28" s="12">
         <v>497</v>
       </c>
-      <c r="AD28" s="14">
+      <c r="AD28" s="12">
         <v>240</v>
       </c>
-      <c r="AE28" s="14">
+      <c r="AE28" s="12">
         <v>355</v>
       </c>
-      <c r="AF28" s="14">
+      <c r="AF28" s="12">
         <v>234</v>
       </c>
-      <c r="AG28" s="14">
+      <c r="AG28" s="12">
         <v>125</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AH28" s="12">
         <v>508</v>
       </c>
     </row>
@@ -2002,7 +2001,7 @@
       <c r="H29" s="2">
         <v>2.23</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="2">
         <v>1.32</v>
       </c>
       <c r="M29">
@@ -2094,7 +2093,7 @@
       <c r="H30" s="2">
         <v>1.69</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="2">
         <v>1.1220000000000001</v>
       </c>
       <c r="M30">
@@ -2186,10 +2185,10 @@
       <c r="G31" s="3">
         <v>15.33</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>1.87</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>1.1484000000000001</v>
       </c>
       <c r="J31" s="3">
@@ -2204,7 +2203,7 @@
       <c r="M31" s="3">
         <v>2.91</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="6">
         <v>0.59160000000000001</v>
       </c>
       <c r="O31">
@@ -2293,7 +2292,7 @@
       <c r="H32" s="2">
         <v>1.69</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="2">
         <v>1.1220000000000001</v>
       </c>
       <c r="M32">
@@ -2388,7 +2387,7 @@
       <c r="H33" s="2">
         <v>1.95</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="2">
         <v>1.2804</v>
       </c>
       <c r="M33">
@@ -2483,7 +2482,7 @@
       <c r="H34" s="2">
         <v>3.17</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="2">
         <v>1.7820000000000003</v>
       </c>
       <c r="M34">
@@ -2578,7 +2577,7 @@
       <c r="H35" s="2">
         <v>3.12</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="2">
         <v>1.7028000000000001</v>
       </c>
       <c r="M35">
@@ -2673,7 +2672,7 @@
       <c r="H36" s="2">
         <v>3.84</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="2">
         <v>2.3628</v>
       </c>
       <c r="M36">
@@ -2765,10 +2764,10 @@
       <c r="G37" s="3">
         <v>10.5</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>2.61</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="6">
         <v>1.9668000000000001</v>
       </c>
       <c r="J37" s="3">
@@ -2783,7 +2782,7 @@
       <c r="M37" s="3">
         <v>4.68</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="6">
         <v>0.7075999999999999</v>
       </c>
       <c r="O37">
@@ -2872,7 +2871,7 @@
       <c r="H38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="2">
         <v>1.6764000000000001</v>
       </c>
       <c r="M38">
@@ -2967,7 +2966,7 @@
       <c r="H39" s="2">
         <v>1.77</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="2">
         <v>1.3464</v>
       </c>
       <c r="M39">
@@ -3062,7 +3061,7 @@
       <c r="H40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="2">
         <v>1.5840000000000001</v>
       </c>
       <c r="M40">
@@ -3724,10 +3723,10 @@
       <c r="G47" s="3">
         <v>12.11</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <v>2.74</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <v>2.0592000000000001</v>
       </c>
       <c r="J47" s="3">
@@ -3742,7 +3741,7 @@
       <c r="M47" s="3">
         <v>5.34</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="6">
         <v>0.75979999999999992</v>
       </c>
       <c r="O47">
@@ -4683,10 +4682,10 @@
       <c r="G57" s="3">
         <v>11.41</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="6">
         <v>2.02</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="6">
         <v>1.6104000000000003</v>
       </c>
       <c r="J57" s="3">
@@ -4701,7 +4700,7 @@
       <c r="M57" s="3">
         <v>6.09</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="6">
         <v>1.1194</v>
       </c>
       <c r="O57">
@@ -4765,288 +4764,288 @@
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
+    <row r="58" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
         <v>1877</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>5286</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="14">
         <v>26</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="14">
         <v>28</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>12.1</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="14">
         <v>10.007999999999999</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="14">
         <v>19.39</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="15">
         <v>2.2799999999999998</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M58" s="14">
         <v>4.95</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="15">
         <v>0.85839999999999994</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="14">
         <v>541</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="14">
         <v>42</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q58" s="14">
         <v>403</v>
       </c>
-      <c r="R58" s="16">
+      <c r="R58" s="14">
         <v>90</v>
       </c>
-      <c r="S58" s="16">
+      <c r="S58" s="14">
         <v>415</v>
       </c>
-      <c r="T58" s="16">
+      <c r="T58" s="14">
         <v>262</v>
       </c>
-      <c r="U58" s="16">
+      <c r="U58" s="14">
         <v>3998</v>
       </c>
-      <c r="V58" s="16">
+      <c r="V58" s="14">
         <v>1523</v>
       </c>
-      <c r="W58" s="16">
+      <c r="W58" s="14">
         <v>3988</v>
       </c>
-      <c r="X58" s="16">
+      <c r="X58" s="14">
         <v>1629</v>
       </c>
-      <c r="Y58" s="16">
+      <c r="Y58" s="14">
         <v>1469</v>
       </c>
-      <c r="Z58" s="16">
+      <c r="Z58" s="14">
         <v>13566</v>
       </c>
-      <c r="AA58" s="16">
+      <c r="AA58" s="14">
         <v>267</v>
       </c>
-      <c r="AB58" s="16">
+      <c r="AB58" s="14">
         <v>9836</v>
       </c>
-      <c r="AC58" s="16">
+      <c r="AC58" s="14">
         <v>778</v>
       </c>
-      <c r="AD58" s="16">
+      <c r="AD58" s="14">
         <v>208</v>
       </c>
-      <c r="AE58" s="16">
+      <c r="AE58" s="14">
         <v>44</v>
       </c>
-      <c r="AF58" s="16">
+      <c r="AF58" s="14">
         <v>233</v>
       </c>
-      <c r="AG58" s="16">
+      <c r="AG58" s="14">
         <v>80</v>
       </c>
-      <c r="AH58" s="16">
+      <c r="AH58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+    <row r="59" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
         <v>1878</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>5282</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="14">
         <v>28</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="14">
         <v>28</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="14">
         <v>12.1</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="14">
         <v>10.512</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="14">
         <v>14.56</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="15">
         <v>1.84</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M59" s="14">
         <v>4.76</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="15">
         <v>0.95119999999999993</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="14">
         <v>531</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="14">
         <v>48</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="14">
         <v>380</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59" s="14">
         <v>97</v>
       </c>
-      <c r="S59" s="16">
+      <c r="S59" s="14">
         <v>404</v>
       </c>
-      <c r="T59" s="16">
+      <c r="T59" s="14">
         <v>254</v>
       </c>
-      <c r="U59" s="16">
+      <c r="U59" s="14">
         <v>3985</v>
       </c>
-      <c r="V59" s="16">
+      <c r="V59" s="14">
         <v>1484</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="14">
         <v>4095</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X59" s="14">
         <v>1654</v>
       </c>
-      <c r="Y59" s="16">
+      <c r="Y59" s="14">
         <v>1269</v>
       </c>
-      <c r="Z59" s="16">
+      <c r="Z59" s="14">
         <v>13711</v>
       </c>
-      <c r="AA59" s="16">
+      <c r="AA59" s="14">
         <v>279</v>
       </c>
-      <c r="AB59" s="16">
+      <c r="AB59" s="14">
         <v>10545</v>
       </c>
-      <c r="AC59" s="16">
+      <c r="AC59" s="14">
         <v>858</v>
       </c>
-      <c r="AD59" s="16">
+      <c r="AD59" s="14">
         <v>179</v>
       </c>
-      <c r="AE59" s="16">
+      <c r="AE59" s="14">
         <v>43</v>
       </c>
-      <c r="AF59" s="16">
+      <c r="AF59" s="14">
         <v>251</v>
       </c>
-      <c r="AG59" s="16">
+      <c r="AG59" s="14">
         <v>85</v>
       </c>
-      <c r="AH59" s="16">
+      <c r="AH59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+    <row r="60" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
         <v>1879</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>5266</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>28</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>28</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>12</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <v>10.59</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="14">
         <v>19.95</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="14">
         <v>4.4400000000000004</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="15">
         <v>1.0613999999999999</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="14">
         <v>511</v>
       </c>
-      <c r="P60" s="16">
+      <c r="P60" s="14">
         <v>48</v>
       </c>
-      <c r="Q60" s="16">
+      <c r="Q60" s="14">
         <v>356</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60" s="14">
         <v>101</v>
       </c>
-      <c r="S60" s="16">
+      <c r="S60" s="14">
         <v>396</v>
       </c>
-      <c r="T60" s="16">
+      <c r="T60" s="14">
         <v>252</v>
       </c>
-      <c r="U60" s="16">
+      <c r="U60" s="14">
         <v>4068</v>
       </c>
-      <c r="V60" s="16">
+      <c r="V60" s="14">
         <v>1465</v>
       </c>
-      <c r="W60" s="16">
+      <c r="W60" s="14">
         <v>4018</v>
       </c>
-      <c r="X60" s="16">
+      <c r="X60" s="14">
         <v>1625</v>
       </c>
-      <c r="Y60" s="16">
+      <c r="Y60" s="14">
         <v>1072</v>
       </c>
-      <c r="Z60" s="16">
+      <c r="Z60" s="14">
         <v>13783</v>
       </c>
-      <c r="AA60" s="16">
+      <c r="AA60" s="14">
         <v>279</v>
       </c>
-      <c r="AB60" s="16">
+      <c r="AB60" s="14">
         <v>10008</v>
       </c>
-      <c r="AC60" s="16">
+      <c r="AC60" s="14">
         <v>650</v>
       </c>
-      <c r="AD60" s="16">
+      <c r="AD60" s="14">
         <v>166</v>
       </c>
-      <c r="AE60" s="16">
+      <c r="AE60" s="14">
         <v>42</v>
       </c>
-      <c r="AF60" s="16">
+      <c r="AF60" s="14">
         <v>269</v>
       </c>
-      <c r="AG60" s="16">
+      <c r="AG60" s="14">
         <v>91</v>
       </c>
-      <c r="AH60" s="16">
+      <c r="AH60" s="14">
         <v>640</v>
       </c>
     </row>
@@ -5066,7 +5065,7 @@
       <c r="E61">
         <v>12</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>9.2829999999999995</v>
       </c>
       <c r="G61">
@@ -5123,25 +5122,25 @@
       <c r="AA61">
         <v>266</v>
       </c>
-      <c r="AB61" s="5">
+      <c r="AB61">
         <v>9242</v>
       </c>
-      <c r="AC61" s="5">
+      <c r="AC61">
         <v>632</v>
       </c>
-      <c r="AD61" s="5">
+      <c r="AD61">
         <v>140</v>
       </c>
-      <c r="AE61" s="5">
+      <c r="AE61">
         <v>41</v>
       </c>
       <c r="AF61">
         <v>286</v>
       </c>
-      <c r="AG61" s="5">
+      <c r="AG61">
         <v>96</v>
       </c>
-      <c r="AH61" s="5">
+      <c r="AH61">
         <v>646</v>
       </c>
     </row>
@@ -5161,7 +5160,7 @@
       <c r="E62">
         <v>12</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62">
         <v>9.8309999999999995</v>
       </c>
       <c r="G62">
@@ -5218,25 +5217,25 @@
       <c r="AA62">
         <v>266</v>
       </c>
-      <c r="AB62" s="5">
+      <c r="AB62">
         <v>7715</v>
       </c>
-      <c r="AC62" s="5">
+      <c r="AC62">
         <v>637</v>
       </c>
-      <c r="AD62" s="5">
+      <c r="AD62">
         <v>101</v>
       </c>
-      <c r="AE62" s="5">
+      <c r="AE62">
         <v>40</v>
       </c>
       <c r="AF62">
         <v>304</v>
       </c>
-      <c r="AG62" s="5">
+      <c r="AG62">
         <v>101</v>
       </c>
-      <c r="AH62" s="5">
+      <c r="AH62">
         <v>665</v>
       </c>
     </row>
@@ -5256,7 +5255,7 @@
       <c r="E63">
         <v>12</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>9.6349999999999998</v>
       </c>
       <c r="G63">
@@ -5313,25 +5312,25 @@
       <c r="AA63">
         <v>263</v>
       </c>
-      <c r="AB63" s="5">
+      <c r="AB63">
         <v>9899</v>
       </c>
-      <c r="AC63" s="5">
+      <c r="AC63">
         <v>926</v>
       </c>
-      <c r="AD63" s="5">
+      <c r="AD63">
         <v>106</v>
       </c>
-      <c r="AE63" s="5">
+      <c r="AE63">
         <v>39</v>
       </c>
       <c r="AF63">
         <v>322</v>
       </c>
-      <c r="AG63" s="5">
+      <c r="AG63">
         <v>106</v>
       </c>
-      <c r="AH63" s="5">
+      <c r="AH63">
         <v>673</v>
       </c>
     </row>
@@ -5351,7 +5350,7 @@
       <c r="E64">
         <v>12</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64">
         <v>9.7119999999999997</v>
       </c>
       <c r="G64">
@@ -5408,25 +5407,25 @@
       <c r="AA64">
         <v>263</v>
       </c>
-      <c r="AB64" s="5">
+      <c r="AB64">
         <v>8985</v>
       </c>
-      <c r="AC64" s="5">
+      <c r="AC64">
         <v>819</v>
       </c>
-      <c r="AD64" s="5">
+      <c r="AD64">
         <v>299</v>
       </c>
-      <c r="AE64" s="5">
+      <c r="AE64">
         <v>38</v>
       </c>
       <c r="AF64">
         <v>339</v>
       </c>
-      <c r="AG64" s="5">
+      <c r="AG64">
         <v>111</v>
       </c>
-      <c r="AH64" s="5">
+      <c r="AH64">
         <v>610</v>
       </c>
     </row>
@@ -5446,7 +5445,7 @@
       <c r="E65">
         <v>11.9</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>8.9870000000000001</v>
       </c>
       <c r="G65">
@@ -5503,25 +5502,25 @@
       <c r="AA65">
         <v>254</v>
       </c>
-      <c r="AB65" s="5">
+      <c r="AB65">
         <v>7689</v>
       </c>
-      <c r="AC65" s="5">
+      <c r="AC65">
         <v>737</v>
       </c>
-      <c r="AD65" s="5">
+      <c r="AD65">
         <v>145</v>
       </c>
-      <c r="AE65" s="5">
+      <c r="AE65">
         <v>38</v>
       </c>
       <c r="AF65">
         <v>357</v>
       </c>
-      <c r="AG65" s="5">
+      <c r="AG65">
         <v>116</v>
       </c>
-      <c r="AH65" s="5">
+      <c r="AH65">
         <v>578</v>
       </c>
     </row>
@@ -5541,7 +5540,7 @@
       <c r="E66">
         <v>11.9</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66">
         <v>11.3</v>
       </c>
       <c r="G66">
@@ -5598,25 +5597,25 @@
       <c r="AA66">
         <v>264</v>
       </c>
-      <c r="AB66" s="5">
+      <c r="AB66">
         <v>9771</v>
       </c>
-      <c r="AC66" s="5">
+      <c r="AC66">
         <v>901</v>
       </c>
-      <c r="AD66" s="5">
+      <c r="AD66">
         <v>121</v>
       </c>
-      <c r="AE66" s="5">
+      <c r="AE66">
         <v>37</v>
       </c>
       <c r="AF66">
         <v>374</v>
       </c>
-      <c r="AG66" s="5">
+      <c r="AG66">
         <v>121</v>
       </c>
-      <c r="AH66" s="5">
+      <c r="AH66">
         <v>625</v>
       </c>
     </row>
@@ -5639,10 +5638,10 @@
       <c r="G67" s="3">
         <v>5.67</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="6">
         <v>1.36</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="6">
         <v>1.0824</v>
       </c>
       <c r="J67" s="3">
@@ -5657,7 +5656,7 @@
       <c r="M67" s="3">
         <v>3.46</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="6">
         <v>1.1194</v>
       </c>
       <c r="O67">
@@ -5699,25 +5698,25 @@
       <c r="AA67">
         <v>266</v>
       </c>
-      <c r="AB67" s="5">
+      <c r="AB67">
         <v>6580</v>
       </c>
-      <c r="AC67" s="5">
+      <c r="AC67">
         <v>871</v>
       </c>
-      <c r="AD67" s="5">
+      <c r="AD67">
         <v>126</v>
       </c>
-      <c r="AE67" s="5">
+      <c r="AE67">
         <v>36</v>
       </c>
-      <c r="AF67" s="5">
+      <c r="AF67">
         <v>392</v>
       </c>
-      <c r="AG67" s="5">
+      <c r="AG67">
         <v>126</v>
       </c>
-      <c r="AH67" s="5">
+      <c r="AH67">
         <v>616</v>
       </c>
     </row>
@@ -5734,7 +5733,7 @@
       <c r="D68">
         <v>28</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68">
         <v>7.5730000000000004</v>
       </c>
       <c r="G68">
@@ -5791,25 +5790,25 @@
       <c r="AA68">
         <v>272</v>
       </c>
-      <c r="AB68" s="5">
+      <c r="AB68">
         <v>7611</v>
       </c>
-      <c r="AC68" s="5">
+      <c r="AC68">
         <v>952</v>
       </c>
-      <c r="AD68" s="5">
+      <c r="AD68">
         <v>281</v>
       </c>
-      <c r="AE68" s="5">
+      <c r="AE68">
         <v>35</v>
       </c>
       <c r="AF68">
         <v>410</v>
       </c>
-      <c r="AG68" s="5">
+      <c r="AG68">
         <v>131</v>
       </c>
-      <c r="AH68" s="5">
+      <c r="AH68">
         <v>576</v>
       </c>
     </row>
@@ -5826,7 +5825,7 @@
       <c r="D69">
         <v>28</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69">
         <v>8.24</v>
       </c>
       <c r="G69">
@@ -5883,25 +5882,25 @@
       <c r="AA69">
         <v>296</v>
       </c>
-      <c r="AB69" s="5">
+      <c r="AB69">
         <v>6898</v>
       </c>
-      <c r="AC69" s="5">
+      <c r="AC69">
         <v>1049</v>
       </c>
-      <c r="AD69" s="5">
+      <c r="AD69">
         <v>401</v>
       </c>
-      <c r="AE69" s="5">
+      <c r="AE69">
         <v>34</v>
       </c>
       <c r="AF69">
         <v>427</v>
       </c>
-      <c r="AG69" s="5">
+      <c r="AG69">
         <v>136</v>
       </c>
-      <c r="AH69" s="5">
+      <c r="AH69">
         <v>610</v>
       </c>
     </row>
@@ -5918,7 +5917,7 @@
       <c r="D70">
         <v>28</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70">
         <v>8.8149999999999995</v>
       </c>
       <c r="G70">
@@ -5975,25 +5974,25 @@
       <c r="AA70">
         <v>304</v>
       </c>
-      <c r="AB70" s="5">
+      <c r="AB70">
         <v>7990</v>
       </c>
-      <c r="AC70" s="5">
+      <c r="AC70">
         <v>1011</v>
       </c>
-      <c r="AD70" s="5">
+      <c r="AD70">
         <v>302</v>
       </c>
-      <c r="AE70" s="5">
+      <c r="AE70">
         <v>33</v>
       </c>
       <c r="AF70">
         <v>445</v>
       </c>
-      <c r="AG70" s="5">
+      <c r="AG70">
         <v>141</v>
       </c>
-      <c r="AH70" s="5">
+      <c r="AH70">
         <v>585</v>
       </c>
     </row>
@@ -6010,7 +6009,7 @@
       <c r="D71">
         <v>28</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71">
         <v>9.51</v>
       </c>
       <c r="G71">
@@ -6067,25 +6066,25 @@
       <c r="AA71">
         <v>327</v>
       </c>
-      <c r="AB71" s="5">
+      <c r="AB71">
         <v>7812</v>
       </c>
-      <c r="AC71" s="5">
+      <c r="AC71">
         <v>776</v>
       </c>
-      <c r="AD71" s="5">
+      <c r="AD71">
         <v>188</v>
       </c>
-      <c r="AE71" s="5">
+      <c r="AE71">
         <v>32</v>
       </c>
       <c r="AF71">
         <v>462</v>
       </c>
-      <c r="AG71" s="5">
+      <c r="AG71">
         <v>146</v>
       </c>
-      <c r="AH71" s="5">
+      <c r="AH71">
         <v>571</v>
       </c>
     </row>
@@ -6102,7 +6101,7 @@
       <c r="D72">
         <v>32</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72">
         <v>10.433</v>
       </c>
       <c r="G72">
@@ -6159,25 +6158,25 @@
       <c r="AA72">
         <v>336</v>
       </c>
-      <c r="AB72" s="5">
+      <c r="AB72">
         <v>7450</v>
       </c>
-      <c r="AC72" s="5">
+      <c r="AC72">
         <v>860</v>
       </c>
-      <c r="AD72" s="5">
+      <c r="AD72">
         <v>176</v>
       </c>
-      <c r="AE72" s="5">
+      <c r="AE72">
         <v>31</v>
       </c>
       <c r="AF72">
         <v>480</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AG72">
         <v>152</v>
       </c>
-      <c r="AH72" s="5">
+      <c r="AH72">
         <v>560</v>
       </c>
     </row>
@@ -6194,7 +6193,7 @@
       <c r="D73">
         <v>30</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73">
         <v>10.433</v>
       </c>
       <c r="G73">
@@ -6251,25 +6250,25 @@
       <c r="AA73">
         <v>333</v>
       </c>
-      <c r="AB73" s="5">
+      <c r="AB73">
         <v>6704</v>
       </c>
-      <c r="AC73" s="5">
+      <c r="AC73">
         <v>1292</v>
       </c>
-      <c r="AD73" s="5">
+      <c r="AD73">
         <v>172</v>
       </c>
-      <c r="AE73" s="5">
+      <c r="AE73">
         <v>31</v>
       </c>
       <c r="AF73">
         <v>498</v>
       </c>
-      <c r="AG73" s="5">
+      <c r="AG73">
         <v>157</v>
       </c>
-      <c r="AH73" s="5">
+      <c r="AH73">
         <v>610</v>
       </c>
     </row>
@@ -6286,7 +6285,7 @@
       <c r="D74">
         <v>30</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74">
         <v>10.16</v>
       </c>
       <c r="G74">
@@ -6343,25 +6342,25 @@
       <c r="AA74">
         <v>323</v>
       </c>
-      <c r="AB74" s="5">
+      <c r="AB74">
         <v>6350</v>
       </c>
-      <c r="AC74" s="5">
+      <c r="AC74">
         <v>1210</v>
       </c>
-      <c r="AD74" s="5">
+      <c r="AD74">
         <v>169</v>
       </c>
-      <c r="AE74" s="5">
+      <c r="AE74">
         <v>30</v>
       </c>
       <c r="AF74">
         <v>515</v>
       </c>
-      <c r="AG74" s="5">
+      <c r="AG74">
         <v>162</v>
       </c>
-      <c r="AH74" s="5">
+      <c r="AH74">
         <v>628</v>
       </c>
     </row>
@@ -6378,7 +6377,7 @@
       <c r="D75">
         <v>34</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75">
         <v>8.9359999999999999</v>
       </c>
       <c r="G75">
@@ -6435,25 +6434,25 @@
       <c r="AA75">
         <v>319</v>
       </c>
-      <c r="AB75" s="5">
+      <c r="AB75">
         <v>5988</v>
       </c>
-      <c r="AC75" s="5">
+      <c r="AC75">
         <v>1867</v>
       </c>
-      <c r="AD75" s="5">
+      <c r="AD75">
         <v>190</v>
       </c>
-      <c r="AE75" s="5">
+      <c r="AE75">
         <v>29</v>
       </c>
       <c r="AF75">
         <v>533</v>
       </c>
-      <c r="AG75" s="5">
+      <c r="AG75">
         <v>167</v>
       </c>
-      <c r="AH75" s="5">
+      <c r="AH75">
         <v>663</v>
       </c>
     </row>
@@ -6470,7 +6469,7 @@
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76">
         <v>7.4989999999999997</v>
       </c>
       <c r="G76">
@@ -6527,25 +6526,25 @@
       <c r="AA76">
         <v>305</v>
       </c>
-      <c r="AB76" s="5">
+      <c r="AB76">
         <v>6899</v>
       </c>
-      <c r="AC76" s="5">
+      <c r="AC76">
         <v>1345</v>
       </c>
-      <c r="AD76" s="5">
+      <c r="AD76">
         <v>247</v>
       </c>
-      <c r="AE76" s="5">
+      <c r="AE76">
         <v>28</v>
       </c>
       <c r="AF76">
         <v>550</v>
       </c>
-      <c r="AG76" s="5">
+      <c r="AG76">
         <v>172</v>
       </c>
-      <c r="AH76" s="5">
+      <c r="AH76">
         <v>677</v>
       </c>
     </row>
@@ -6568,10 +6567,10 @@
       <c r="G77" s="3">
         <v>7.63</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="6">
         <v>1.43</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="6">
         <v>1.2804</v>
       </c>
       <c r="J77" s="3">
@@ -6586,7 +6585,7 @@
       <c r="M77" s="3">
         <v>3.73</v>
       </c>
-      <c r="N77" s="8">
+      <c r="N77" s="6">
         <v>1.1194</v>
       </c>
       <c r="O77">
@@ -6628,25 +6627,25 @@
       <c r="AA77">
         <v>306</v>
       </c>
-      <c r="AB77" s="5">
+      <c r="AB77">
         <v>5530</v>
       </c>
-      <c r="AC77" s="5">
+      <c r="AC77">
         <v>1128</v>
       </c>
-      <c r="AD77" s="5">
+      <c r="AD77">
         <v>246</v>
       </c>
-      <c r="AE77" s="5">
+      <c r="AE77">
         <v>27</v>
       </c>
       <c r="AF77">
         <v>568</v>
       </c>
-      <c r="AG77" s="5">
+      <c r="AG77">
         <v>177</v>
       </c>
-      <c r="AH77" s="5">
+      <c r="AH77">
         <v>638</v>
       </c>
     </row>
@@ -6663,7 +6662,7 @@
       <c r="D78">
         <v>40</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78">
         <v>8.1630000000000003</v>
       </c>
       <c r="G78">
@@ -6720,25 +6719,25 @@
       <c r="AA78">
         <v>299</v>
       </c>
-      <c r="AB78" s="5">
+      <c r="AB78">
         <v>5274</v>
       </c>
-      <c r="AC78" s="5">
+      <c r="AC78">
         <v>1209</v>
       </c>
-      <c r="AD78" s="5">
+      <c r="AD78">
         <v>233</v>
       </c>
-      <c r="AE78" s="5">
+      <c r="AE78">
         <v>26</v>
       </c>
       <c r="AF78">
         <v>586</v>
       </c>
-      <c r="AG78" s="5">
+      <c r="AG78">
         <v>182</v>
       </c>
-      <c r="AH78" s="5">
+      <c r="AH78">
         <v>639</v>
       </c>
     </row>
@@ -6755,7 +6754,7 @@
       <c r="D79">
         <v>40</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79">
         <v>8.0850000000000009</v>
       </c>
       <c r="G79">
@@ -6812,25 +6811,25 @@
       <c r="AA79">
         <v>296</v>
       </c>
-      <c r="AB79" s="5">
+      <c r="AB79">
         <v>4968</v>
       </c>
-      <c r="AC79" s="5">
+      <c r="AC79">
         <v>1180</v>
       </c>
-      <c r="AD79" s="5">
+      <c r="AD79">
         <v>275</v>
       </c>
-      <c r="AE79" s="5">
+      <c r="AE79">
         <v>25</v>
       </c>
       <c r="AF79">
         <v>603</v>
       </c>
-      <c r="AG79" s="5">
+      <c r="AG79">
         <v>187</v>
       </c>
-      <c r="AH79" s="5">
+      <c r="AH79">
         <v>664</v>
       </c>
     </row>
@@ -6847,7 +6846,7 @@
       <c r="D80">
         <v>40</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80">
         <v>8.0850000000000009</v>
       </c>
       <c r="G80">
@@ -6904,25 +6903,25 @@
       <c r="AA80">
         <v>304</v>
       </c>
-      <c r="AB80" s="5">
+      <c r="AB80">
         <v>5516</v>
       </c>
-      <c r="AC80" s="5">
+      <c r="AC80">
         <v>999</v>
       </c>
-      <c r="AD80" s="5">
+      <c r="AD80">
         <v>197</v>
       </c>
-      <c r="AE80" s="5">
+      <c r="AE80">
         <v>24</v>
       </c>
       <c r="AF80">
         <v>621</v>
       </c>
-      <c r="AG80" s="5">
+      <c r="AG80">
         <v>192</v>
       </c>
-      <c r="AH80" s="5">
+      <c r="AH80">
         <v>645</v>
       </c>
     </row>
@@ -6939,7 +6938,7 @@
       <c r="D81">
         <v>40</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81">
         <v>8.3629999999999995</v>
       </c>
       <c r="G81">
@@ -6996,42 +6995,27 @@
       <c r="AA81">
         <v>306</v>
       </c>
-      <c r="AB81" s="5">
+      <c r="AB81">
         <v>5325</v>
       </c>
-      <c r="AC81" s="5">
+      <c r="AC81">
         <v>1327</v>
       </c>
-      <c r="AD81" s="5">
+      <c r="AD81">
         <v>284</v>
       </c>
-      <c r="AE81" s="5">
+      <c r="AE81">
         <v>24</v>
       </c>
       <c r="AF81">
         <v>639</v>
       </c>
-      <c r="AG81" s="5">
+      <c r="AG81">
         <v>197</v>
       </c>
-      <c r="AH81" s="5">
+      <c r="AH81">
         <v>683</v>
       </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AG82" s="5"/>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AG83" s="5"/>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AG84" s="5"/>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AG85" s="5"/>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="AG86" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7094,7 +7078,7 @@
       <c r="S2">
         <v>6.2489999999999997</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="8">
         <f>S2*64.262</f>
         <v>401.573238</v>
       </c>
@@ -7102,18 +7086,18 @@
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="Y2" s="11">
+      <c r="W2" s="8"/>
+      <c r="Y2" s="9">
         <v>2.76</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="8">
         <f>Y2*56.66</f>
         <v>156.38159999999999</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="10">
         <v>1.23</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="8">
         <f>AB2*48.93</f>
         <v>60.183900000000001</v>
       </c>
@@ -7122,25 +7106,25 @@
       <c r="S3">
         <v>5.8449999999999998</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:T27" si="0">S3*64.262</f>
         <v>375.61138999999997</v>
       </c>
       <c r="V3">
         <v>6.8</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="Y3" s="11">
+      <c r="W3" s="8"/>
+      <c r="Y3" s="9">
         <v>2.92</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="8">
         <f t="shared" ref="Z3:Z27" si="1">Y3*56.66</f>
         <v>165.44719999999998</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="10">
         <v>1.29</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="8">
         <f t="shared" ref="AC3:AC27" si="2">AB3*48.93</f>
         <v>63.119700000000002</v>
       </c>
@@ -7149,25 +7133,25 @@
       <c r="S4">
         <v>6.47</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="8">
         <f t="shared" si="0"/>
         <v>415.77513999999996</v>
       </c>
       <c r="V4">
         <v>3.85</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="Y4" s="11">
+      <c r="W4" s="8"/>
+      <c r="Y4" s="9">
         <v>2.63</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="8">
         <f t="shared" si="1"/>
         <v>149.01579999999998</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="10">
         <v>1.38</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="8">
         <f t="shared" si="2"/>
         <v>67.523399999999995</v>
       </c>
@@ -7176,25 +7160,25 @@
       <c r="S5">
         <v>7.8369999999999997</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="8">
         <f t="shared" si="0"/>
         <v>503.62129399999998</v>
       </c>
       <c r="V5">
         <v>7.7</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="Y5" s="11">
+      <c r="W5" s="8"/>
+      <c r="Y5" s="9">
         <v>3.01</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="8">
         <f t="shared" si="1"/>
         <v>170.54659999999998</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="10">
         <v>1.24</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="8">
         <f t="shared" si="2"/>
         <v>60.673200000000001</v>
       </c>
@@ -7203,25 +7187,25 @@
       <c r="S6">
         <v>7.7759999999999998</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="8">
         <f t="shared" si="0"/>
         <v>499.70131199999997</v>
       </c>
       <c r="V6">
         <v>5.3</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="Y6" s="11">
+      <c r="W6" s="8"/>
+      <c r="Y6" s="9">
         <v>2.72</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="8">
         <f t="shared" si="1"/>
         <v>154.11520000000002</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="10">
         <v>1.21</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="8">
         <f t="shared" si="2"/>
         <v>59.205300000000001</v>
       </c>
@@ -7230,25 +7214,25 @@
       <c r="S7">
         <v>7.9740000000000002</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="8">
         <f t="shared" si="0"/>
         <v>512.42518800000005</v>
       </c>
       <c r="V7">
         <v>7.7</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="Y7" s="11">
+      <c r="W7" s="8"/>
+      <c r="Y7" s="9">
         <v>2.82</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="8">
         <f t="shared" si="1"/>
         <v>159.78119999999998</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="10">
         <v>1.34</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="8">
         <f t="shared" si="2"/>
         <v>65.566200000000009</v>
       </c>
@@ -7257,25 +7241,25 @@
       <c r="S8">
         <v>8.0009999999999994</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T8" s="8">
         <f t="shared" si="0"/>
         <v>514.16026199999999</v>
       </c>
       <c r="V8">
         <v>8.48</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="Y8" s="11">
+      <c r="W8" s="8"/>
+      <c r="Y8" s="9">
         <v>2.7</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="8">
         <f t="shared" si="1"/>
         <v>152.982</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="10">
         <v>1.42</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="8">
         <f t="shared" si="2"/>
         <v>69.480599999999995</v>
       </c>
@@ -7284,25 +7268,25 @@
       <c r="S9">
         <v>6.4669999999999996</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T9" s="8">
         <f t="shared" si="0"/>
         <v>415.58235399999995</v>
       </c>
       <c r="V9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="Y9" s="11">
+      <c r="W9" s="8"/>
+      <c r="Y9" s="9">
         <v>2.69</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="8">
         <f t="shared" si="1"/>
         <v>152.41539999999998</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="10">
         <v>1.33</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="8">
         <f t="shared" si="2"/>
         <v>65.076900000000009</v>
       </c>
@@ -7311,25 +7295,25 @@
       <c r="S10">
         <v>6.7380000000000004</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="8">
         <f t="shared" si="0"/>
         <v>432.99735600000002</v>
       </c>
       <c r="V10">
         <v>4.92</v>
       </c>
-      <c r="W10" s="10"/>
+      <c r="W10" s="8"/>
       <c r="Y10" s="2">
         <v>3.21</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="8">
         <f t="shared" si="1"/>
         <v>181.87859999999998</v>
       </c>
       <c r="AB10" s="2">
         <v>1.31</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="8">
         <f t="shared" si="2"/>
         <v>64.098300000000009</v>
       </c>
@@ -7338,25 +7322,25 @@
       <c r="S11">
         <v>7.702</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="8">
         <f t="shared" si="0"/>
         <v>494.94592399999999</v>
       </c>
       <c r="V11">
         <v>6.93</v>
       </c>
-      <c r="W11" s="10"/>
+      <c r="W11" s="8"/>
       <c r="Y11" s="2">
         <v>3.2</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="8">
         <f t="shared" si="1"/>
         <v>181.31200000000001</v>
       </c>
       <c r="AB11" s="2">
         <v>1.33</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="8">
         <f t="shared" si="2"/>
         <v>65.076900000000009</v>
       </c>
@@ -7365,25 +7349,25 @@
       <c r="S12">
         <v>7.3120000000000003</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="8">
         <f t="shared" si="0"/>
         <v>469.88374400000004</v>
       </c>
       <c r="V12">
         <v>7.08</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="8"/>
       <c r="Y12" s="2">
         <v>3.3</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="8">
         <f t="shared" si="1"/>
         <v>186.97799999999998</v>
       </c>
       <c r="AB12" s="2">
         <v>1.6</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="8">
         <f t="shared" si="2"/>
         <v>78.288000000000011</v>
       </c>
@@ -7392,25 +7376,25 @@
       <c r="S13">
         <v>5.4210000000000003</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="8">
         <f t="shared" si="0"/>
         <v>348.36430200000001</v>
       </c>
       <c r="V13">
         <v>3.84</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="8"/>
       <c r="Y13" s="2">
         <v>2.94</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="8">
         <f t="shared" si="1"/>
         <v>166.5804</v>
       </c>
       <c r="AB13" s="2">
         <v>1.29</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="8">
         <f t="shared" si="2"/>
         <v>63.119700000000002</v>
       </c>
@@ -7419,25 +7403,25 @@
       <c r="S14">
         <v>5.1130000000000004</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T14" s="8">
         <f t="shared" si="0"/>
         <v>328.57160600000003</v>
       </c>
       <c r="V14">
         <v>3.2</v>
       </c>
-      <c r="W14" s="10"/>
+      <c r="W14" s="8"/>
       <c r="Y14" s="2">
         <v>2.61</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="8">
         <f t="shared" si="1"/>
         <v>147.8826</v>
       </c>
       <c r="AB14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="8">
         <f t="shared" si="2"/>
         <v>54.801600000000008</v>
       </c>
@@ -7446,25 +7430,25 @@
       <c r="S15">
         <v>5.7619999999999996</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="8">
         <f t="shared" si="0"/>
         <v>370.27764399999995</v>
       </c>
       <c r="V15">
         <v>6.44</v>
       </c>
-      <c r="W15" s="10"/>
+      <c r="W15" s="8"/>
       <c r="Y15" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="8">
         <f t="shared" si="1"/>
         <v>128.05159999999998</v>
       </c>
       <c r="AB15" s="2">
         <v>1.17</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="8">
         <f t="shared" si="2"/>
         <v>57.248099999999994</v>
       </c>
@@ -7473,25 +7457,25 @@
       <c r="S16">
         <v>6.4349999999999996</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T16" s="8">
         <f t="shared" si="0"/>
         <v>413.52596999999997</v>
       </c>
       <c r="V16">
         <v>3.58</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="W16" s="8"/>
       <c r="Y16" s="2">
         <v>1.97</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="8">
         <f t="shared" si="1"/>
         <v>111.6202</v>
       </c>
       <c r="AB16" s="2">
         <v>1.21</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="8">
         <f t="shared" si="2"/>
         <v>59.205300000000001</v>
       </c>
@@ -7500,25 +7484,25 @@
       <c r="S17">
         <v>7.1760000000000002</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="8">
         <f t="shared" si="0"/>
         <v>461.14411200000001</v>
       </c>
       <c r="V17">
         <v>5.44</v>
       </c>
-      <c r="W17" s="10"/>
+      <c r="W17" s="8"/>
       <c r="Y17" s="2">
         <v>2.41</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="8">
         <f t="shared" si="1"/>
         <v>136.5506</v>
       </c>
       <c r="AB17" s="2">
         <v>1.32</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="8">
         <f t="shared" si="2"/>
         <v>64.587600000000009</v>
       </c>
@@ -7527,25 +7511,25 @@
       <c r="S18">
         <v>6.8049999999999997</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T18" s="8">
         <f t="shared" si="0"/>
         <v>437.30291</v>
       </c>
       <c r="V18">
         <v>7.9</v>
       </c>
-      <c r="W18" s="10"/>
+      <c r="W18" s="8"/>
       <c r="Y18" s="2">
         <v>2.76</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="8">
         <f t="shared" si="1"/>
         <v>156.38159999999999</v>
       </c>
       <c r="AB18" s="2">
         <v>1.28</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="8">
         <f t="shared" si="2"/>
         <v>62.630400000000002</v>
       </c>
@@ -7554,25 +7538,25 @@
       <c r="S19">
         <v>6.7510000000000003</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="8">
         <f t="shared" si="0"/>
         <v>433.832762</v>
       </c>
       <c r="V19">
         <v>5.89</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="8"/>
       <c r="Y19" s="2">
         <v>3.25</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="8">
         <f t="shared" si="1"/>
         <v>184.14499999999998</v>
       </c>
       <c r="AB19" s="2">
         <v>1.26</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="8">
         <f t="shared" si="2"/>
         <v>61.651800000000001</v>
       </c>
@@ -7581,25 +7565,25 @@
       <c r="S20">
         <v>8.4269999999999996</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="8">
         <f t="shared" si="0"/>
         <v>541.53587399999992</v>
       </c>
       <c r="V20">
         <v>7.3</v>
       </c>
-      <c r="W20" s="10"/>
+      <c r="W20" s="8"/>
       <c r="Y20" s="2">
         <v>3.53</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="8">
         <f t="shared" si="1"/>
         <v>200.00979999999998</v>
       </c>
       <c r="AB20" s="2">
         <v>1.61</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="8">
         <f t="shared" si="2"/>
         <v>78.777300000000011</v>
       </c>
@@ -7608,25 +7592,25 @@
       <c r="S21">
         <v>7.7290000000000001</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="8">
         <f t="shared" si="0"/>
         <v>496.68099799999999</v>
       </c>
       <c r="V21">
         <v>7</v>
       </c>
-      <c r="W21" s="10"/>
+      <c r="W21" s="8"/>
       <c r="Y21" s="2">
         <v>3.34</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="8">
         <f t="shared" si="1"/>
         <v>189.24439999999998</v>
       </c>
       <c r="AB21" s="2">
         <v>1.45</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="8">
         <f t="shared" si="2"/>
         <v>70.948499999999996</v>
       </c>
@@ -7635,25 +7619,25 @@
       <c r="S22">
         <v>6.6970000000000001</v>
       </c>
-      <c r="T22" s="10">
+      <c r="T22" s="8">
         <f t="shared" si="0"/>
         <v>430.36261400000001</v>
       </c>
       <c r="V22">
         <v>6.33</v>
       </c>
-      <c r="W22" s="10"/>
+      <c r="W22" s="8"/>
       <c r="Y22" s="2">
         <v>3.25</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="8">
         <f t="shared" si="1"/>
         <v>184.14499999999998</v>
       </c>
       <c r="AB22" s="2">
         <v>1.29</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="8">
         <f t="shared" si="2"/>
         <v>63.119700000000002</v>
       </c>
@@ -7662,25 +7646,25 @@
       <c r="S23">
         <v>6.0229999999999997</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="8">
         <f t="shared" si="0"/>
         <v>387.050026</v>
       </c>
       <c r="V23">
         <v>7.97</v>
       </c>
-      <c r="W23" s="10"/>
+      <c r="W23" s="8"/>
       <c r="Y23" s="2">
         <v>2.84</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="8">
         <f t="shared" si="1"/>
         <v>160.91439999999997</v>
       </c>
       <c r="AB23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="8">
         <f t="shared" si="2"/>
         <v>54.801600000000008</v>
       </c>
@@ -7689,25 +7673,25 @@
       <c r="S24">
         <v>5.2119999999999997</v>
       </c>
-      <c r="T24" s="10">
+      <c r="T24" s="8">
         <f t="shared" si="0"/>
         <v>334.93354399999998</v>
       </c>
       <c r="V24">
         <v>4.51</v>
       </c>
-      <c r="W24" s="10"/>
+      <c r="W24" s="8"/>
       <c r="Y24" s="2">
         <v>2.52</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="8">
         <f t="shared" si="1"/>
         <v>142.78319999999999</v>
       </c>
       <c r="AB24" s="2">
         <v>1.18</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="8">
         <f t="shared" si="2"/>
         <v>57.737399999999994</v>
       </c>
@@ -7716,25 +7700,25 @@
       <c r="S25">
         <v>6.3</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="8">
         <f t="shared" si="0"/>
         <v>404.85059999999999</v>
       </c>
       <c r="V25">
         <v>5.54</v>
       </c>
-      <c r="W25" s="10"/>
-      <c r="Y25" s="6">
+      <c r="W25" s="8"/>
+      <c r="Y25" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="8">
         <f t="shared" si="1"/>
         <v>142.21659999999997</v>
       </c>
-      <c r="AB25" s="6">
+      <c r="AB25" s="2">
         <v>1.32</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="8">
         <f t="shared" si="2"/>
         <v>64.587600000000009</v>
       </c>
@@ -7743,7 +7727,7 @@
       <c r="S26">
         <v>7.1369999999999996</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="8">
         <f t="shared" si="0"/>
         <v>458.63789399999996</v>
       </c>
@@ -7753,14 +7737,14 @@
       <c r="Y26" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="Z26" s="8">
         <f t="shared" si="1"/>
         <v>142.21659999999997</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AB26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="AC26" s="10">
+      <c r="AC26" s="8">
         <f t="shared" si="2"/>
         <v>76.213368000000003</v>
       </c>
@@ -7769,7 +7753,7 @@
       <c r="S27">
         <v>8.6210000000000004</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="8">
         <f t="shared" si="0"/>
         <v>554.002702</v>
       </c>
@@ -7779,14 +7763,14 @@
       <c r="Y27" s="2">
         <v>3.35</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="8">
         <f t="shared" si="1"/>
         <v>189.81100000000001</v>
       </c>
-      <c r="AB27" s="6">
+      <c r="AB27" s="2">
         <v>2.31</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="8">
         <f t="shared" si="2"/>
         <v>113.0283</v>
       </c>
@@ -7812,7 +7796,7 @@
         <f>W28/V28</f>
         <v>5.0056242969628792</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="5">
         <v>2.5099999999999998</v>
       </c>
       <c r="Z28" s="1">
@@ -7822,10 +7806,10 @@
         <f>Z28/Y28</f>
         <v>108.36653386454184</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="AC28" s="14">
+      <c r="AC28" s="12">
         <v>120</v>
       </c>
       <c r="AD28">
@@ -7864,7 +7848,7 @@
         <f t="shared" ref="AA29:AA81" si="5">Z29/Y29</f>
         <v>109.86547085201794</v>
       </c>
-      <c r="AB29" s="6">
+      <c r="AB29" s="2">
         <v>1.32</v>
       </c>
       <c r="AC29">
@@ -7906,7 +7890,7 @@
         <f t="shared" si="5"/>
         <v>143.7869822485207</v>
       </c>
-      <c r="AB30" s="6">
+      <c r="AB30" s="2">
         <v>1.1220000000000001</v>
       </c>
       <c r="AC30">
@@ -7938,7 +7922,7 @@
         <f t="shared" si="4"/>
         <v>17.938682322243967</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y31" s="6">
         <v>1.87</v>
       </c>
       <c r="Z31">
@@ -7948,7 +7932,7 @@
         <f t="shared" si="5"/>
         <v>113.90374331550801</v>
       </c>
-      <c r="AB31" s="8">
+      <c r="AB31" s="6">
         <v>1.1484000000000001</v>
       </c>
       <c r="AC31">
@@ -7990,7 +7974,7 @@
         <f t="shared" si="5"/>
         <v>102.36686390532545</v>
       </c>
-      <c r="AB32" s="6">
+      <c r="AB32" s="2">
         <v>1.1220000000000001</v>
       </c>
       <c r="AC32">
@@ -8032,7 +8016,7 @@
         <f t="shared" si="5"/>
         <v>64.102564102564102</v>
       </c>
-      <c r="AB33" s="6">
+      <c r="AB33" s="2">
         <v>1.2804</v>
       </c>
       <c r="AC33">
@@ -8074,7 +8058,7 @@
         <f t="shared" si="5"/>
         <v>35.646687697160885</v>
       </c>
-      <c r="AB34" s="6">
+      <c r="AB34" s="2">
         <v>1.7820000000000003</v>
       </c>
       <c r="AC34">
@@ -8116,7 +8100,7 @@
         <f t="shared" si="5"/>
         <v>45.833333333333329</v>
       </c>
-      <c r="AB35" s="6">
+      <c r="AB35" s="2">
         <v>1.7028000000000001</v>
       </c>
       <c r="AC35">
@@ -8158,7 +8142,7 @@
         <f t="shared" si="5"/>
         <v>40.364583333333336</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AB36" s="2">
         <v>2.3628</v>
       </c>
       <c r="AC36">
@@ -8190,7 +8174,7 @@
         <f t="shared" si="4"/>
         <v>32.857142857142854</v>
       </c>
-      <c r="Y37" s="8">
+      <c r="Y37" s="6">
         <v>2.61</v>
       </c>
       <c r="Z37">
@@ -8200,7 +8184,7 @@
         <f t="shared" si="5"/>
         <v>69.348659003831415</v>
       </c>
-      <c r="AB37" s="8">
+      <c r="AB37" s="6">
         <v>1.9668000000000001</v>
       </c>
       <c r="AC37">
@@ -8242,7 +8226,7 @@
         <f t="shared" si="5"/>
         <v>87.272727272727266</v>
       </c>
-      <c r="AB38" s="6">
+      <c r="AB38" s="2">
         <v>1.6764000000000001</v>
       </c>
       <c r="AC38">
@@ -8284,7 +8268,7 @@
         <f t="shared" si="5"/>
         <v>104.51977401129943</v>
       </c>
-      <c r="AB39" s="6">
+      <c r="AB39" s="2">
         <v>1.3464</v>
       </c>
       <c r="AC39">
@@ -8326,7 +8310,7 @@
         <f t="shared" si="5"/>
         <v>71.36363636363636</v>
       </c>
-      <c r="AB40" s="6">
+      <c r="AB40" s="2">
         <v>1.5840000000000001</v>
       </c>
       <c r="AC40">
@@ -8721,7 +8705,7 @@
         <f t="shared" si="4"/>
         <v>26.672171758876964</v>
       </c>
-      <c r="Y47" s="8">
+      <c r="Y47" s="6">
         <v>2.74</v>
       </c>
       <c r="Z47">
@@ -8731,7 +8715,7 @@
         <f t="shared" si="5"/>
         <v>37.226277372262771</v>
       </c>
-      <c r="AB47" s="8">
+      <c r="AB47" s="6">
         <v>2.0592000000000001</v>
       </c>
       <c r="AC47">
@@ -9491,7 +9475,7 @@
         <f t="shared" si="4"/>
         <v>23.312883435582823</v>
       </c>
-      <c r="Y57" s="8">
+      <c r="Y57" s="6">
         <v>2.02</v>
       </c>
       <c r="Z57">
@@ -9501,7 +9485,7 @@
         <f t="shared" si="5"/>
         <v>17.326732673267326</v>
       </c>
-      <c r="AB57" s="8">
+      <c r="AB57" s="6">
         <v>1.6104000000000003</v>
       </c>
       <c r="AC57">
@@ -9568,7 +9552,7 @@
         <f t="shared" si="4"/>
         <v>13.512119649303765</v>
       </c>
-      <c r="Y58" s="9">
+      <c r="Y58" s="7">
         <v>2.2799999999999998</v>
       </c>
       <c r="Z58" s="4">
@@ -9578,10 +9562,10 @@
         <f t="shared" si="5"/>
         <v>18.421052631578949</v>
       </c>
-      <c r="AB58" s="17">
+      <c r="AB58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="AC58" s="16">
+      <c r="AC58" s="14">
         <v>90</v>
       </c>
       <c r="AD58">
@@ -9645,7 +9629,7 @@
         <f t="shared" si="4"/>
         <v>17.445054945054945</v>
       </c>
-      <c r="Y59" s="9">
+      <c r="Y59" s="7">
         <v>1.84</v>
       </c>
       <c r="Z59" s="4">
@@ -9655,10 +9639,10 @@
         <f t="shared" si="5"/>
         <v>26.086956521739129</v>
       </c>
-      <c r="AB59" s="17">
+      <c r="AB59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="AC59" s="16">
+      <c r="AC59" s="14">
         <v>97</v>
       </c>
       <c r="AD59">
@@ -9722,7 +9706,7 @@
         <f t="shared" si="4"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y60" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="Z60" s="4">
@@ -9732,10 +9716,10 @@
         <f t="shared" si="5"/>
         <v>20.869565217391305</v>
       </c>
-      <c r="AB60" s="17">
+      <c r="AB60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="AC60" s="16">
+      <c r="AC60" s="14">
         <v>101</v>
       </c>
       <c r="AD60">
@@ -9779,7 +9763,7 @@
         <f t="shared" si="11"/>
         <v>0.79459999999999997</v>
       </c>
-      <c r="S61" s="5">
+      <c r="S61">
         <v>9.2829999999999995</v>
       </c>
       <c r="T61">
@@ -9856,7 +9840,7 @@
         <f t="shared" si="11"/>
         <v>0.76559999999999984</v>
       </c>
-      <c r="S62" s="5">
+      <c r="S62">
         <v>9.8309999999999995</v>
       </c>
       <c r="T62">
@@ -9933,7 +9917,7 @@
         <f t="shared" si="11"/>
         <v>0.78299999999999992</v>
       </c>
-      <c r="S63" s="5">
+      <c r="S63">
         <v>9.6349999999999998</v>
       </c>
       <c r="T63">
@@ -10010,7 +9994,7 @@
         <f t="shared" si="11"/>
         <v>0.80619999999999992</v>
       </c>
-      <c r="S64" s="5">
+      <c r="S64">
         <v>9.7119999999999997</v>
       </c>
       <c r="T64">
@@ -10087,7 +10071,7 @@
         <f t="shared" si="11"/>
         <v>0.83519999999999994</v>
       </c>
-      <c r="S65" s="5">
+      <c r="S65">
         <v>8.9870000000000001</v>
       </c>
       <c r="T65">
@@ -10164,7 +10148,7 @@
         <f t="shared" si="11"/>
         <v>0.75979999999999992</v>
       </c>
-      <c r="S66" s="5">
+      <c r="S66">
         <v>113</v>
       </c>
       <c r="T66">
@@ -10261,7 +10245,7 @@
         <f t="shared" si="4"/>
         <v>42.151675485008816</v>
       </c>
-      <c r="Y67" s="8">
+      <c r="Y67" s="6">
         <v>1.36</v>
       </c>
       <c r="Z67">
@@ -10271,7 +10255,7 @@
         <f t="shared" si="5"/>
         <v>13.970588235294116</v>
       </c>
-      <c r="AB67" s="8">
+      <c r="AB67" s="6">
         <v>1.0824</v>
       </c>
       <c r="AC67">
@@ -10318,7 +10302,7 @@
         <f t="shared" si="11"/>
         <v>0.80039999999999989</v>
       </c>
-      <c r="S68" s="5">
+      <c r="S68">
         <v>7.5730000000000004</v>
       </c>
       <c r="T68">
@@ -10395,7 +10379,7 @@
         <f t="shared" si="11"/>
         <v>0.80039999999999989</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69">
         <v>8.24</v>
       </c>
       <c r="T69">
@@ -10472,7 +10456,7 @@
         <f t="shared" si="11"/>
         <v>0.87</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S70">
         <v>8.8149999999999995</v>
       </c>
       <c r="T70">
@@ -10549,7 +10533,7 @@
         <f t="shared" si="11"/>
         <v>0.83519999999999994</v>
       </c>
-      <c r="S71" s="5">
+      <c r="S71">
         <v>9.51</v>
       </c>
       <c r="T71">
@@ -10626,7 +10610,7 @@
         <f t="shared" si="11"/>
         <v>0.87</v>
       </c>
-      <c r="S72" s="5">
+      <c r="S72">
         <v>10.433</v>
       </c>
       <c r="T72">
@@ -10703,7 +10687,7 @@
         <f t="shared" si="11"/>
         <v>0.93379999999999996</v>
       </c>
-      <c r="S73" s="5">
+      <c r="S73">
         <v>10.433</v>
       </c>
       <c r="T73">
@@ -10780,7 +10764,7 @@
         <f t="shared" si="11"/>
         <v>1.0324</v>
       </c>
-      <c r="S74" s="5">
+      <c r="S74">
         <v>10.16</v>
       </c>
       <c r="T74">
@@ -10857,7 +10841,7 @@
         <f t="shared" si="11"/>
         <v>1.0497999999999998</v>
       </c>
-      <c r="S75" s="5">
+      <c r="S75">
         <v>8.9359999999999999</v>
       </c>
       <c r="T75">
@@ -10934,7 +10918,7 @@
         <f t="shared" si="11"/>
         <v>1.1194</v>
       </c>
-      <c r="S76" s="5">
+      <c r="S76">
         <v>7.4989999999999997</v>
       </c>
       <c r="T76">
@@ -11031,7 +11015,7 @@
         <f t="shared" si="4"/>
         <v>26.998689384010486</v>
       </c>
-      <c r="Y77" s="8">
+      <c r="Y77" s="6">
         <v>1.43</v>
       </c>
       <c r="Z77">
@@ -11041,7 +11025,7 @@
         <f t="shared" si="5"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="AB77" s="8">
+      <c r="AB77" s="6">
         <v>1.2804</v>
       </c>
       <c r="AC77">
@@ -11088,7 +11072,7 @@
         <f t="shared" si="11"/>
         <v>0.95119999999999993</v>
       </c>
-      <c r="S78" s="5">
+      <c r="S78">
         <v>8.1630000000000003</v>
       </c>
       <c r="T78">
@@ -11165,7 +11149,7 @@
         <f t="shared" si="11"/>
         <v>1.0613999999999999</v>
       </c>
-      <c r="S79" s="5">
+      <c r="S79">
         <v>8.0850000000000009</v>
       </c>
       <c r="T79">
@@ -11242,7 +11226,7 @@
         <f t="shared" si="11"/>
         <v>1.0207999999999999</v>
       </c>
-      <c r="S80" s="5">
+      <c r="S80">
         <v>8.0850000000000009</v>
       </c>
       <c r="T80">
@@ -11319,7 +11303,7 @@
         <f t="shared" si="11"/>
         <v>1.2585999999999999</v>
       </c>
-      <c r="S81" s="5">
+      <c r="S81">
         <v>8.3629999999999995</v>
       </c>
       <c r="T81">

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E2E891-B5C7-AD4F-9567-C700E8E29DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E4AF8-0B7C-B54C-8F94-4FF89DD14BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" activeTab="2" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>barley_yield</t>
   </si>
+  <si>
+    <t>potato_price_wage_odd</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,6 +256,8 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC18" sqref="AC18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,30 +589,30 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" customWidth="1"/>
-    <col min="18" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" customWidth="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="28" max="28" width="13.83203125" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" customWidth="1"/>
-    <col min="31" max="31" width="12.5" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" customWidth="1"/>
+    <col min="19" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="13.83203125" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" customWidth="1"/>
+    <col min="32" max="32" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,83 +640,86 @@
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -740,24 +748,28 @@
       <c r="I2" s="10">
         <v>1.23</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="16">
+        <f>G2/D2</f>
+        <v>0.27113402061855674</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="P2" s="11">
+      <c r="N2" s="2"/>
+      <c r="Q2" s="11">
         <v>156</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <v>402</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>60</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -782,20 +794,24 @@
       <c r="I3" s="10">
         <v>1.29</v>
       </c>
-      <c r="P3" s="11">
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J66" si="0">G3/D3</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="Q3" s="11">
         <v>165</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <v>376</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <v>63</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -820,20 +836,24 @@
       <c r="I4" s="10">
         <v>1.38</v>
       </c>
-      <c r="P4" s="11">
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="Q4" s="11">
         <v>149</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="R4" s="11">
         <v>416</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
         <v>68</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -858,20 +878,24 @@
       <c r="I5" s="10">
         <v>1.24</v>
       </c>
-      <c r="P5" s="11">
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="Q5" s="11">
         <v>171</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>504</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <v>61</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -899,20 +923,24 @@
       <c r="I6" s="10">
         <v>1.21</v>
       </c>
-      <c r="P6" s="11">
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="Q6" s="11">
         <v>154</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="R6" s="11">
         <v>500</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <v>59</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -937,20 +965,24 @@
       <c r="I7" s="10">
         <v>1.34</v>
       </c>
-      <c r="P7" s="11">
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="Q7" s="11">
         <v>160</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="R7" s="11">
         <v>512</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <v>66</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -975,20 +1007,24 @@
       <c r="I8" s="10">
         <v>1.42</v>
       </c>
-      <c r="P8" s="11">
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q8" s="11">
         <v>153</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="R8" s="11">
         <v>514</v>
       </c>
-      <c r="R8" s="11">
+      <c r="S8" s="11">
         <v>69</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1013,20 +1049,24 @@
       <c r="I9" s="10">
         <v>1.33</v>
       </c>
-      <c r="P9" s="11">
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="Q9" s="11">
         <v>152</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="R9" s="11">
         <v>416</v>
       </c>
-      <c r="R9" s="11">
+      <c r="S9" s="11">
         <v>65</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1051,20 +1091,24 @@
       <c r="I10" s="2">
         <v>1.31</v>
       </c>
-      <c r="P10" s="11">
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.3075</v>
+      </c>
+      <c r="Q10" s="11">
         <v>182</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="R10" s="11">
         <v>433</v>
       </c>
-      <c r="R10" s="11">
+      <c r="S10" s="11">
         <v>64</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1092,20 +1136,24 @@
       <c r="I11" s="2">
         <v>1.33</v>
       </c>
-      <c r="P11" s="11">
+      <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.43312499999999998</v>
+      </c>
+      <c r="Q11" s="11">
         <v>181</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="R11" s="11">
         <v>495</v>
       </c>
-      <c r="R11" s="11">
+      <c r="S11" s="11">
         <v>65</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1130,20 +1178,24 @@
       <c r="I12" s="2">
         <v>1.6</v>
       </c>
-      <c r="P12" s="11">
+      <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.4425</v>
+      </c>
+      <c r="Q12" s="11">
         <v>187</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="R12" s="11">
         <v>470</v>
       </c>
-      <c r="R12" s="11">
+      <c r="S12" s="11">
         <v>78</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1168,20 +1220,24 @@
       <c r="I13" s="2">
         <v>1.29</v>
       </c>
-      <c r="P13" s="11">
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="Q13" s="11">
         <v>167</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="R13" s="11">
         <v>348</v>
       </c>
-      <c r="R13" s="11">
+      <c r="S13" s="11">
         <v>63</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1206,20 +1262,24 @@
       <c r="I14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P14" s="11">
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="11">
         <v>148</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="R14" s="11">
         <v>329</v>
       </c>
-      <c r="R14" s="11">
+      <c r="S14" s="11">
         <v>55</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1244,20 +1304,24 @@
       <c r="I15" s="2">
         <v>1.17</v>
       </c>
-      <c r="P15" s="11">
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="Q15" s="11">
         <v>128</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <v>370</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <v>57</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1285,20 +1349,24 @@
       <c r="I16" s="2">
         <v>1.21</v>
       </c>
-      <c r="P16" s="11">
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22375</v>
+      </c>
+      <c r="Q16" s="11">
         <v>112</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="R16" s="11">
         <v>414</v>
       </c>
-      <c r="R16" s="11">
+      <c r="S16" s="11">
         <v>59</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1323,20 +1391,24 @@
       <c r="I17" s="2">
         <v>1.32</v>
       </c>
-      <c r="P17" s="11">
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="Q17" s="11">
         <v>137</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="R17" s="11">
         <v>461</v>
       </c>
-      <c r="R17" s="11">
+      <c r="S17" s="11">
         <v>65</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1361,20 +1433,24 @@
       <c r="I18" s="2">
         <v>1.28</v>
       </c>
-      <c r="P18" s="11">
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="Q18" s="11">
         <v>156</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="R18" s="11">
         <v>437</v>
       </c>
-      <c r="R18" s="11">
+      <c r="S18" s="11">
         <v>63</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1399,20 +1475,24 @@
       <c r="I19" s="2">
         <v>1.26</v>
       </c>
-      <c r="P19" s="11">
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>0.36812499999999998</v>
+      </c>
+      <c r="Q19" s="11">
         <v>184</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="R19" s="11">
         <v>434</v>
       </c>
-      <c r="R19" s="11">
+      <c r="S19" s="11">
         <v>62</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1437,38 +1517,42 @@
       <c r="I20" s="2">
         <v>1.61</v>
       </c>
-      <c r="P20" s="11">
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="Q20" s="11">
         <v>200</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="R20" s="11">
         <v>542</v>
       </c>
-      <c r="R20" s="11">
+      <c r="S20" s="11">
         <v>79</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>516</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>197</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>55</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>471</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>95</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>38</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1496,44 +1580,48 @@
       <c r="I21" s="2">
         <v>1.45</v>
       </c>
-      <c r="M21">
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="N21">
         <v>3.93</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P21" s="11">
+      <c r="Q21" s="11">
         <v>189</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="R21" s="11">
         <v>497</v>
       </c>
-      <c r="R21" s="11">
+      <c r="S21" s="11">
         <v>71</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>722</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>80</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>38</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>318</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>51</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>21</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1558,44 +1646,48 @@
       <c r="I22" s="2">
         <v>1.29</v>
       </c>
-      <c r="P22" s="11">
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
+        <v>0.395625</v>
+      </c>
+      <c r="Q22" s="11">
         <v>184</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="R22" s="11">
         <v>430</v>
       </c>
-      <c r="R22" s="11">
+      <c r="S22" s="11">
         <v>63</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2250</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2106</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>651</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>88</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>8</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>399</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>74</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>6</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1620,38 +1712,42 @@
       <c r="I23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P23" s="11">
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
+        <v>0.49812499999999998</v>
+      </c>
+      <c r="Q23" s="11">
         <v>161</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="R23" s="11">
         <v>387</v>
       </c>
-      <c r="R23" s="11">
+      <c r="S23" s="11">
         <v>55</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>799</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>131</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>54</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>368</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>112</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>46</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1676,38 +1772,42 @@
       <c r="I24" s="2">
         <v>1.18</v>
       </c>
-      <c r="P24" s="11">
+      <c r="J24" s="16">
+        <f t="shared" si="0"/>
+        <v>0.28187499999999999</v>
+      </c>
+      <c r="Q24" s="11">
         <v>143</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="11">
         <v>335</v>
       </c>
-      <c r="R24" s="11">
+      <c r="S24" s="11">
         <v>58</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>268</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>9</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>10</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>754</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>9</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>6</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -1732,38 +1832,42 @@
       <c r="I25" s="2">
         <v>1.32</v>
       </c>
-      <c r="P25" s="11">
+      <c r="J25" s="16">
+        <f t="shared" si="0"/>
+        <v>0.34625</v>
+      </c>
+      <c r="Q25" s="11">
         <v>142</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="R25" s="11">
         <v>405</v>
       </c>
-      <c r="R25" s="11">
+      <c r="S25" s="11">
         <v>65</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>435</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>102</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>20</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>802</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>39</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>13</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -1788,44 +1892,48 @@
       <c r="I26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M26">
+      <c r="J26" s="16">
+        <f t="shared" si="0"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="N26">
         <v>3.62</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>0.55679999999999996</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>142</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="11">
         <v>459</v>
       </c>
-      <c r="R26" s="11">
+      <c r="S26" s="11">
         <v>76</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>228</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>141</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>28</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>1420</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>47</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>18</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -1850,44 +1958,48 @@
       <c r="I27" s="2">
         <v>2.31</v>
       </c>
-      <c r="M27">
+      <c r="J27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.413125</v>
+      </c>
+      <c r="N27">
         <v>4.13</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>190</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="11">
         <v>554</v>
       </c>
-      <c r="R27" s="11">
+      <c r="S27" s="11">
         <v>113</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>1175</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>143</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>74</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>717</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>85</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>43</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -1912,74 +2024,78 @@
       <c r="I28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="M28" s="12">
+      <c r="J28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1112500000000001</v>
+      </c>
+      <c r="N28" s="12">
         <v>3.89</v>
       </c>
-      <c r="N28" s="13">
+      <c r="O28" s="13">
         <v>0.71920000000000006</v>
       </c>
-      <c r="O28" s="12">
+      <c r="P28" s="12">
         <v>1026</v>
       </c>
-      <c r="P28" s="12">
+      <c r="Q28" s="12">
         <v>272</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="R28" s="12">
         <v>625</v>
       </c>
-      <c r="R28" s="12">
+      <c r="S28" s="12">
         <v>120</v>
       </c>
-      <c r="S28" s="12">
+      <c r="T28" s="12">
         <v>231</v>
       </c>
-      <c r="T28" s="12">
+      <c r="U28" s="12">
         <v>89</v>
       </c>
-      <c r="U28" s="12">
+      <c r="V28" s="12">
         <v>2591</v>
       </c>
-      <c r="V28" s="12">
+      <c r="W28" s="12">
         <v>0</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28" s="12">
         <v>2186</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Y28" s="12">
         <v>0</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Z28" s="12">
         <v>622</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="AA28" s="12">
         <v>5691</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AB28" s="12">
         <v>164</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AC28" s="12">
         <v>3701</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AD28" s="12">
         <v>497</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AE28" s="12">
         <v>240</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AF28" s="12">
         <v>355</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AG28" s="12">
         <v>234</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AH28" s="12">
         <v>125</v>
       </c>
-      <c r="AH28" s="12">
+      <c r="AI28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2004,74 +2120,78 @@
       <c r="I29" s="2">
         <v>1.32</v>
       </c>
-      <c r="M29">
+      <c r="J29" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="N29">
         <v>3.42</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>0.61480000000000001</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>953</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>245</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>566</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>117</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>365</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>258</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>2736</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1971</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>639</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>6510</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>175</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2207</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>148</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>12</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>556</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>49</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>9</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2096,74 +2216,78 @@
       <c r="I30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="M30">
+      <c r="J30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.94062500000000004</v>
+      </c>
+      <c r="N30">
         <v>2.91</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>976</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>243</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>584</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>127</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>362</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>219</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>2771</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1777</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>795</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>6328</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>183</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2845</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>311</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>70</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>428</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>65</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>42</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2191,83 +2315,87 @@
       <c r="I31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="16">
+        <f t="shared" si="0"/>
+        <v>0.958125</v>
+      </c>
+      <c r="K31" s="3">
         <v>3.61</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>6.2</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>0.63</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>2.91</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>0.59160000000000001</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>974</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>213</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>619</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>118</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>414</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>275</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2918</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1876</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>928</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>6945</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>201</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3942</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>351</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>72</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>322</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>150</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>31</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2295,74 +2423,78 @@
       <c r="I32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="M32">
+      <c r="J32" s="16">
+        <f t="shared" si="0"/>
+        <v>0.765625</v>
+      </c>
+      <c r="N32">
         <v>3.26</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>0.54519999999999991</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>962</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>173</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>641</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>126</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>434</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>270</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2967</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2122</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1085</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>7471</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>235</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>5385</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>292</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>13</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>173</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>145</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>12</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2390,74 +2522,78 @@
       <c r="I33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="M33">
+      <c r="J33" s="16">
+        <f t="shared" si="0"/>
+        <v>0.87062499999999998</v>
+      </c>
+      <c r="N33">
         <v>3.26</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>0.54519999999999991</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>921</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>125</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>672</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>109</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>429</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>275</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>3095</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>2614</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1073</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>8176</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>278</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>4833</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>146</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>21</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>102</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>62</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>14</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2485,74 +2621,78 @@
       <c r="I34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="M34">
+      <c r="J34" s="16">
+        <f t="shared" si="0"/>
+        <v>0.86722222222222223</v>
+      </c>
+      <c r="N34">
         <v>3.85</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>0.64379999999999993</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>879</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>113</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>639</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>113</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>447</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>279</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3383</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>3143</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1145</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>8661</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>296</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>4728</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>184</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>29</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>135</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>50</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>29</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2580,74 +2720,78 @@
       <c r="I35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="M35">
+      <c r="J35" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N35">
         <v>4.21</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>0.64379999999999993</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>844</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>143</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>596</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>95</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>449</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>308</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3498</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1518</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>3722</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1777</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1343</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8630</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>311</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>2939</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>171</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>26</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>252</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>75</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>26</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2675,74 +2819,78 @@
       <c r="I36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="M36">
+      <c r="J36" s="16">
+        <f t="shared" si="0"/>
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="N36">
         <v>4.17</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>0.63219999999999998</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>864</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>155</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>612</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>89</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>459</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>309</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>3564</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>1561</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>3602</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1734</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1178</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>8367</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>284</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>2990</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>401</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>15</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>312</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>289</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>15</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -2770,83 +2918,87 @@
       <c r="I37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="16">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K37" s="3">
         <v>5.83</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>7.7</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>1.72</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>4.68</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>0.7075999999999999</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>848</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>181</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>588</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>71</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>496</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>345</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>3588</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1580</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3694</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>1655</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>919</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>8908</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>270</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>3491</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>359</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>9</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>359</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>246</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>9</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -2874,74 +3026,78 @@
       <c r="I38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="M38">
+      <c r="J38" s="16">
+        <f t="shared" si="0"/>
+        <v>0.98777777777777787</v>
+      </c>
+      <c r="N38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>0.74819999999999998</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>847</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>192</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>565</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>81</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>511</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>359</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>3621</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>1605</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>3452</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>1538</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>1255</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>9491</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>243</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>2843</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>518</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>27</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>334</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>178</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>14</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -2969,74 +3125,78 @@
       <c r="I39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="M39">
+      <c r="J39" s="16">
+        <f t="shared" si="0"/>
+        <v>0.56777777777777783</v>
+      </c>
+      <c r="N39">
         <v>4.68</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>0.69599999999999995</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>827</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>185</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>561</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>74</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>512</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>360</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3667</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>1635</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>3495</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>1522</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>1410</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>9563</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>228</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>4159</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>339</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>17</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>298</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>110</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>19</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3064,74 +3224,78 @@
       <c r="I40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="M40">
+      <c r="J40" s="16">
+        <f t="shared" si="0"/>
+        <v>0.68833333333333335</v>
+      </c>
+      <c r="N40">
         <v>4.99</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>0.7075999999999999</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>800</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>157</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>568</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>69</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>520</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>374</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>3816</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>1690</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>3593</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>1564</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>1266</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>10252</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>219</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>4775</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>238</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>25</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>320</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>42</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>25</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3159,74 +3323,78 @@
       <c r="I41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="M41">
+      <c r="J41" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0305555555555557</v>
+      </c>
+      <c r="N41">
         <v>4.09</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>0.71920000000000006</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>794</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>157</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>560</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>71</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>507</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>361</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>3606</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>1626</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>3542</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>1567</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>1271</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>10061</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>194</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>5072</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>362</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>25</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>161</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>61</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>8</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3254,74 +3422,78 @@
       <c r="I42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="M42">
+      <c r="J42" s="16">
+        <f t="shared" si="0"/>
+        <v>0.88277777777777777</v>
+      </c>
+      <c r="N42">
         <v>4.91</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>0.79459999999999997</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>792</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>133</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>574</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>78</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>496</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>349</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>3472</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>1545</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>3556</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>1528</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>1102</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>10371</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>190</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>5365</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>252</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>10</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>236</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>128</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>6</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3349,74 +3521,78 @@
       <c r="I43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="M43">
+      <c r="J43" s="16">
+        <f t="shared" si="0"/>
+        <v>0.7038888888888889</v>
+      </c>
+      <c r="N43">
         <v>4.09</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>0.76559999999999984</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>766</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>118</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>565</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>76</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>469</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>311</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>3255</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>1487</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>3456</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>1495</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>1154</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>9917</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>175</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>8340</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>230</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>232</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>150</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>181</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>232</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3444,74 +3620,78 @@
       <c r="I44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="M44">
+      <c r="J44" s="16">
+        <f t="shared" si="0"/>
+        <v>0.49388888888888893</v>
+      </c>
+      <c r="N44">
         <v>4.4400000000000004</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>0.78299999999999992</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>728</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>87</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>566</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>69</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>466</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>315</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>3144</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>1397</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>3308</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>1420</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>1067</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>9649</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>166</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>6490</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>136</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>71</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>161</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>62</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>39</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3539,74 +3719,78 @@
       <c r="I45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="M45">
+      <c r="J45" s="16">
+        <f t="shared" si="0"/>
+        <v>0.50944444444444448</v>
+      </c>
+      <c r="N45">
         <v>4.83</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>0.80619999999999992</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>698</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>96</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>526</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>70</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>466</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>322</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>3262</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>1349</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>3367</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>1435</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>1058</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>10424</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>171</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>6044</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>214</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>12</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>63</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>66</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>12</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3634,74 +3818,78 @@
       <c r="I46" s="2">
         <v>1.518</v>
       </c>
-      <c r="M46">
+      <c r="J46" s="16">
+        <f t="shared" si="0"/>
+        <v>0.56777777777777783</v>
+      </c>
+      <c r="N46">
         <v>5.5</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>0.83519999999999994</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>668</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>93</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>496</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>72</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>474</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>330</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>3498</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>1387</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>3694</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>1579</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>1306</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>10682</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>171</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>6002</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>269</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>50</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>62</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>76</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>25</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -3729,83 +3917,87 @@
       <c r="I47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="16">
+        <f t="shared" si="0"/>
+        <v>0.57666666666666666</v>
+      </c>
+      <c r="K47" s="3">
         <v>7.85</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8.6199999999999992</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2.89</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5.34</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <v>0.75979999999999992</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>658</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>102</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>488</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>61</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>466</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>323</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>3746</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>1483</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>4274</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>1799</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>1497</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>10890</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>187</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>6575</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>329</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>38</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>59</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>31</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>36</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -3833,74 +4025,78 @@
       <c r="I48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="M48">
+      <c r="J48" s="16">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N48">
         <v>4.28</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>0.79459999999999997</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>638</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>88</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>475</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>69</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>449</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>308</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>3708</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>1521</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>4836</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>2034</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>1235</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>10334</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>190</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>7022</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>360</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>71</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>52</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>57</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>30</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -3928,74 +4124,78 @@
       <c r="I49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="M49">
+      <c r="J49" s="16">
+        <f t="shared" si="0"/>
+        <v>0.51624999999999999</v>
+      </c>
+      <c r="N49">
         <v>5.86</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>0.80039999999999989</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>660</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>93</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>486</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>75</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>459</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>320</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>3647</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>1476</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>4901</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>2052</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>870</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>10603</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>199</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>7103</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>159</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>36</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>52</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>75</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>35</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4023,74 +4223,78 @@
       <c r="I50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="M50">
+      <c r="J50" s="16">
+        <f t="shared" si="0"/>
+        <v>0.44916666666666666</v>
+      </c>
+      <c r="N50">
         <v>5.1100000000000003</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>0.80039999999999989</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>663</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>87</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>481</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>90</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>463</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>320</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>3734</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>1506</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>4651</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>1938</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>1082</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>10802</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>206</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>8003</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>213</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>41</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>51</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>93</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>40</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4118,74 +4322,78 @@
       <c r="I51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M51">
+      <c r="J51" s="16">
+        <f t="shared" si="0"/>
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="N51">
         <v>5.54</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>0.87</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>645</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>80</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>461</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>97</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>470</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>319</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>3800</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>1529</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>4337</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>1807</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>1461</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>11159</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>212</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>7704</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>259</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>55</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>50</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>110</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>45</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4213,74 +4421,78 @@
       <c r="I52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="M52">
+      <c r="J52" s="16">
+        <f t="shared" si="0"/>
+        <v>0.57166666666666666</v>
+      </c>
+      <c r="N52">
         <v>5.34</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>0.83519999999999994</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>628</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>74</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>458</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>89</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>473</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>322</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>3976</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>1546</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>4233</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>1752</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>1621</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>11717</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>231</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>8848</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>401</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>75</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>49</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>128</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>50</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4308,74 +4520,78 @@
       <c r="I53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="M53">
+      <c r="J53" s="16">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="N53">
         <v>5.23</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>0.87</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>611</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>66</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>451</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>88</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>458</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>301</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>4059</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>1552</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>4263</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>1742</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>1389</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>11738</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>239</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>9584</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>784</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>95</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>48</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>145</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>55</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4403,74 +4619,78 @@
       <c r="I54" s="2">
         <v>1.056</v>
       </c>
-      <c r="M54">
+      <c r="J54" s="16">
+        <f t="shared" si="0"/>
+        <v>0.60038461538461541</v>
+      </c>
+      <c r="N54">
         <v>5.78</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>0.93379999999999996</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>563</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>50</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>415</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>92</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>424</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>272</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>4147</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>1528</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>4485</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>1822</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>1044</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>11863</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>243</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>8746</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>603</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>139</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>47</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>163</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>60</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4498,74 +4718,78 @@
       <c r="I55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="M55">
+      <c r="J55" s="16">
+        <f t="shared" si="0"/>
+        <v>0.38230769230769229</v>
+      </c>
+      <c r="N55">
         <v>6.01</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <v>1.0324</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>550</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>57</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>403</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>85</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>418</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>270</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>4125</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>1491</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>4442</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>1818</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>1099</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>12068</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>257</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>9113</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>350</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>114</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>46</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>181</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>65</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4593,74 +4817,78 @@
       <c r="I56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="M56">
+      <c r="J56" s="16">
+        <f t="shared" si="0"/>
+        <v>0.43615384615384617</v>
+      </c>
+      <c r="N56">
         <v>5.9</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O56" s="2">
         <v>1.0497999999999998</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>554</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>47</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>408</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>93</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>423</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>272</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>4115</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>1530</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>4254</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>1750</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>1252</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>12139</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>271</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>11251</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>543</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>122</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>45</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>198</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>70</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4688,83 +4916,87 @@
       <c r="I57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="16">
+        <f t="shared" si="0"/>
+        <v>0.42259259259259258</v>
+      </c>
+      <c r="K57" s="3">
         <v>10.19</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8.51</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2.87</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6.09</v>
       </c>
-      <c r="N57" s="6">
+      <c r="O57" s="6">
         <v>1.1194</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>536</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>35</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>407</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>88</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>420</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>266</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>4117</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>1533</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>4009</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>1639</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>1425</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>13619</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>264</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>10575</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>670</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>81</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>45</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>216</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>75</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -4792,74 +5024,78 @@
       <c r="I58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="M58" s="14">
+      <c r="J58" s="16">
+        <f t="shared" si="0"/>
+        <v>0.6925</v>
+      </c>
+      <c r="N58" s="14">
         <v>4.95</v>
       </c>
-      <c r="N58" s="15">
+      <c r="O58" s="15">
         <v>0.85839999999999994</v>
       </c>
-      <c r="O58" s="14">
+      <c r="P58" s="14">
         <v>541</v>
       </c>
-      <c r="P58" s="14">
+      <c r="Q58" s="14">
         <v>42</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="R58" s="14">
         <v>403</v>
       </c>
-      <c r="R58" s="14">
+      <c r="S58" s="14">
         <v>90</v>
       </c>
-      <c r="S58" s="14">
+      <c r="T58" s="14">
         <v>415</v>
       </c>
-      <c r="T58" s="14">
+      <c r="U58" s="14">
         <v>262</v>
       </c>
-      <c r="U58" s="14">
+      <c r="V58" s="14">
         <v>3998</v>
       </c>
-      <c r="V58" s="14">
+      <c r="W58" s="14">
         <v>1523</v>
       </c>
-      <c r="W58" s="14">
+      <c r="X58" s="14">
         <v>3988</v>
       </c>
-      <c r="X58" s="14">
+      <c r="Y58" s="14">
         <v>1629</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Z58" s="14">
         <v>1469</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="AA58" s="14">
         <v>13566</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AB58" s="14">
         <v>267</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AC58" s="14">
         <v>9836</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AD58" s="14">
         <v>778</v>
       </c>
-      <c r="AD58" s="14">
+      <c r="AE58" s="14">
         <v>208</v>
       </c>
-      <c r="AE58" s="14">
+      <c r="AF58" s="14">
         <v>44</v>
       </c>
-      <c r="AF58" s="14">
+      <c r="AG58" s="14">
         <v>233</v>
       </c>
-      <c r="AG58" s="14">
+      <c r="AH58" s="14">
         <v>80</v>
       </c>
-      <c r="AH58" s="14">
+      <c r="AI58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -4887,74 +5123,78 @@
       <c r="I59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="M59" s="14">
+      <c r="J59" s="16">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="N59" s="14">
         <v>4.76</v>
       </c>
-      <c r="N59" s="15">
+      <c r="O59" s="15">
         <v>0.95119999999999993</v>
       </c>
-      <c r="O59" s="14">
+      <c r="P59" s="14">
         <v>531</v>
       </c>
-      <c r="P59" s="14">
+      <c r="Q59" s="14">
         <v>48</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="R59" s="14">
         <v>380</v>
       </c>
-      <c r="R59" s="14">
+      <c r="S59" s="14">
         <v>97</v>
       </c>
-      <c r="S59" s="14">
+      <c r="T59" s="14">
         <v>404</v>
       </c>
-      <c r="T59" s="14">
+      <c r="U59" s="14">
         <v>254</v>
       </c>
-      <c r="U59" s="14">
+      <c r="V59" s="14">
         <v>3985</v>
       </c>
-      <c r="V59" s="14">
+      <c r="W59" s="14">
         <v>1484</v>
       </c>
-      <c r="W59" s="14">
+      <c r="X59" s="14">
         <v>4095</v>
       </c>
-      <c r="X59" s="14">
+      <c r="Y59" s="14">
         <v>1654</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Z59" s="14">
         <v>1269</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="AA59" s="14">
         <v>13711</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AB59" s="14">
         <v>279</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AC59" s="14">
         <v>10545</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AD59" s="14">
         <v>858</v>
       </c>
-      <c r="AD59" s="14">
+      <c r="AE59" s="14">
         <v>179</v>
       </c>
-      <c r="AE59" s="14">
+      <c r="AF59" s="14">
         <v>43</v>
       </c>
-      <c r="AF59" s="14">
+      <c r="AG59" s="14">
         <v>251</v>
       </c>
-      <c r="AG59" s="14">
+      <c r="AH59" s="14">
         <v>85</v>
       </c>
-      <c r="AH59" s="14">
+      <c r="AI59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -4982,74 +5222,78 @@
       <c r="I60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="M60" s="14">
+      <c r="J60" s="16">
+        <f t="shared" si="0"/>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="N60" s="14">
         <v>4.4400000000000004</v>
       </c>
-      <c r="N60" s="15">
+      <c r="O60" s="15">
         <v>1.0613999999999999</v>
       </c>
-      <c r="O60" s="14">
+      <c r="P60" s="14">
         <v>511</v>
       </c>
-      <c r="P60" s="14">
+      <c r="Q60" s="14">
         <v>48</v>
       </c>
-      <c r="Q60" s="14">
+      <c r="R60" s="14">
         <v>356</v>
       </c>
-      <c r="R60" s="14">
+      <c r="S60" s="14">
         <v>101</v>
       </c>
-      <c r="S60" s="14">
+      <c r="T60" s="14">
         <v>396</v>
       </c>
-      <c r="T60" s="14">
+      <c r="U60" s="14">
         <v>252</v>
       </c>
-      <c r="U60" s="14">
+      <c r="V60" s="14">
         <v>4068</v>
       </c>
-      <c r="V60" s="14">
+      <c r="W60" s="14">
         <v>1465</v>
       </c>
-      <c r="W60" s="14">
+      <c r="X60" s="14">
         <v>4018</v>
       </c>
-      <c r="X60" s="14">
+      <c r="Y60" s="14">
         <v>1625</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Z60" s="14">
         <v>1072</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="AA60" s="14">
         <v>13783</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AB60" s="14">
         <v>279</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AC60" s="14">
         <v>10008</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AD60" s="14">
         <v>650</v>
       </c>
-      <c r="AD60" s="14">
+      <c r="AE60" s="14">
         <v>166</v>
       </c>
-      <c r="AE60" s="14">
+      <c r="AF60" s="14">
         <v>42</v>
       </c>
-      <c r="AF60" s="14">
+      <c r="AG60" s="14">
         <v>269</v>
       </c>
-      <c r="AG60" s="14">
+      <c r="AH60" s="14">
         <v>91</v>
       </c>
-      <c r="AH60" s="14">
+      <c r="AI60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5077,74 +5321,78 @@
       <c r="I61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="M61">
+      <c r="J61" s="16">
+        <f t="shared" si="0"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N61">
         <v>5.07</v>
       </c>
-      <c r="N61" s="2">
+      <c r="O61" s="2">
         <v>1.0207999999999999</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>516</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>45</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>378</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>87</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>385</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>247</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>3922</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>1398</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>3562</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>1440</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>850</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>13430</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>266</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>9242</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>632</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>140</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>41</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>286</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>96</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5172,74 +5420,78 @@
       <c r="I62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="M62">
+      <c r="J62" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="N62">
         <v>4.4800000000000004</v>
       </c>
-      <c r="N62" s="2">
+      <c r="O62" s="2">
         <v>1.2585999999999999</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>519</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>47</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>383</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>83</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>391</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>257</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>3957</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>1392</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>3256</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>1338</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>1096</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>13972</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>266</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>7715</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>637</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>101</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>40</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>304</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>101</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5267,74 +5519,78 @@
       <c r="I63" s="2">
         <v>1.518</v>
       </c>
-      <c r="M63">
+      <c r="J63" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="N63">
         <v>4.4800000000000004</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O63" s="2">
         <v>1.2469999999999999</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>511</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>46</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>385</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>74</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>385</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>252</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>3987</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>1399</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>3072</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>1261</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>1430</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>13999</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>263</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>9899</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>926</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>106</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>39</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>322</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>106</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5362,74 +5618,78 @@
       <c r="I64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="M64">
+      <c r="J64" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="N64">
         <v>4.32</v>
       </c>
-      <c r="N64" s="2">
+      <c r="O64" s="2">
         <v>1.2469999999999999</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>486</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>27</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>381</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>73</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>379</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>242</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>4097</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>1402</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>3219</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>1330</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>1348</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>13382</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>263</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>8985</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>819</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>299</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>38</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>339</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>111</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5457,74 +5717,78 @@
       <c r="I65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="M65">
+      <c r="J65" s="16">
+        <f t="shared" si="0"/>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="N65">
         <v>4.13</v>
       </c>
-      <c r="N65" s="2">
+      <c r="O65" s="2">
         <v>1.2238</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>460</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>19</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>371</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>67</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>375</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>240</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>4113</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>1357</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>3245</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>1333</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>1307</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>12747</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>254</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>7689</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>737</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>145</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>38</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>357</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>116</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -5552,74 +5816,78 @@
       <c r="I66" s="2">
         <v>1.32</v>
       </c>
-      <c r="M66">
+      <c r="J66" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N66">
         <v>3.58</v>
       </c>
-      <c r="N66" s="2">
+      <c r="O66" s="2">
         <v>1.1774</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>459</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>20</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>363</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>71</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>374</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>239</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>4229</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>1417</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>3478</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>1421</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>1269</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>13851</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>264</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>9771</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>901</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>121</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>37</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>374</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>121</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -5644,83 +5912,87 @@
       <c r="I67" s="6">
         <v>1.0824</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="16">
+        <f t="shared" ref="J67:J81" si="1">G67/D67</f>
+        <v>0.20249999999999999</v>
+      </c>
+      <c r="K67" s="3">
         <v>9.83</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>7.77</v>
       </c>
-      <c r="L67" s="3">
+      <c r="M67" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>3.46</v>
       </c>
-      <c r="N67" s="6">
+      <c r="O67" s="6">
         <v>1.1194</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>461</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>19</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>365</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>72</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>375</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>239</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>4184</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>1419</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>3366</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>1386</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>1263</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>13910</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>266</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>6580</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>871</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>126</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>36</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>392</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>126</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -5745,74 +6017,78 @@
       <c r="I68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="M68">
+      <c r="J68" s="16">
+        <f t="shared" si="1"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="N68">
         <v>3.77</v>
       </c>
-      <c r="N68" s="2">
+      <c r="O68" s="2">
         <v>1.1194</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>450</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>18</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>362</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>65</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>377</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>238</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>4157</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>1394</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>3378</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>1382</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>1408</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>14461</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>272</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>7611</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>952</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>281</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>35</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <v>410</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>131</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -5837,74 +6113,78 @@
       <c r="I69" s="2">
         <v>1.32</v>
       </c>
-      <c r="M69">
+      <c r="J69" s="16">
+        <f t="shared" si="1"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="N69">
         <v>3.73</v>
       </c>
-      <c r="N69" s="2">
+      <c r="O69" s="2">
         <v>1.1194</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>451</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>29</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>348</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>68</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>378</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>239</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>4099</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>1385</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>3627</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>1485</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>1398</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>14486</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>296</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>6898</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>1049</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>401</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>34</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>427</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>136</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -5929,74 +6209,78 @@
       <c r="I70" s="2">
         <v>1.32</v>
       </c>
-      <c r="M70">
+      <c r="J70" s="16">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="N70">
         <v>3.97</v>
       </c>
-      <c r="N70" s="2">
+      <c r="O70" s="2">
         <v>1.1194</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>443</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>28</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>335</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>74</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>373</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>235</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>4094</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>1364</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>3789</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>1542</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>1381</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>14857</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>304</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>7990</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>1011</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>302</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>33</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>445</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>141</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6021,74 +6305,78 @@
       <c r="I71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="M71">
+      <c r="J71" s="16">
+        <f t="shared" si="1"/>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="N71">
         <v>3.58</v>
       </c>
-      <c r="N71" s="2">
+      <c r="O71" s="2">
         <v>1.3281999999999998</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>436</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>28</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>329</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>73</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>372</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>232</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>4240</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>1401</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>4323</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>1752</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>1570</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>15408</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>327</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>7812</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>776</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>188</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>32</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>462</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>146</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6113,74 +6401,78 @@
       <c r="I72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="M72">
+      <c r="J72" s="16">
+        <f t="shared" si="1"/>
+        <v>0.30406250000000001</v>
+      </c>
+      <c r="N72">
         <v>4.28</v>
       </c>
-      <c r="N72" s="2">
+      <c r="O72" s="2">
         <v>1.3281999999999998</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>429</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>24</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>328</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>71</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>364</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>222</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>4449</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>1442</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>4723</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>1922</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>1368</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>15276</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>336</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>7450</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>860</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>176</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>31</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <v>480</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>152</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6205,74 +6497,78 @@
       <c r="I73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="M73">
+      <c r="J73" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39666666666666667</v>
+      </c>
+      <c r="N73">
         <v>4.4400000000000004</v>
       </c>
-      <c r="N73" s="2">
+      <c r="O73" s="2">
         <v>1.3281999999999998</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>428</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>22</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>330</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>70</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>357</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>218</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>4531</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>1451</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>4828</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>1970</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>1113</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>15336</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>333</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>6704</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>1292</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>172</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>31</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>498</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>157</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6297,74 +6593,78 @@
       <c r="I74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="M74">
+      <c r="J74" s="16">
+        <f t="shared" si="1"/>
+        <v>0.34766666666666668</v>
+      </c>
+      <c r="N74">
         <v>4.01</v>
       </c>
-      <c r="N74" s="2">
+      <c r="O74" s="2">
         <v>1.3281999999999998</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>425</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>16</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>336</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>67</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>350</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>212</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>4464</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>1441</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>4421</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>1822</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>1152</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>16097</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>323</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>6350</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>1210</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>169</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>30</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>515</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>162</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6389,74 +6689,78 @@
       <c r="I75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="M75">
+      <c r="J75" s="16">
+        <f t="shared" si="1"/>
+        <v>0.25323529411764706</v>
+      </c>
+      <c r="N75">
         <v>3.65</v>
       </c>
-      <c r="N75" s="2">
+      <c r="O75" s="2">
         <v>1.131</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>424</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>14</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>340</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>66</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>355</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>211</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>4392</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>1447</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>4105</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>1686</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>1389</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>16181</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>319</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>5988</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>1867</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>190</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>29</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <v>533</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>167</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6481,74 +6785,78 @@
       <c r="I76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="M76">
+      <c r="J76" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19833333333333333</v>
+      </c>
+      <c r="N76">
         <v>3.62</v>
       </c>
-      <c r="N76" s="2">
+      <c r="O76" s="2">
         <v>1.2121999999999999</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>413</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>10</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>329</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>69</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>351</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>208</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>4358</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>1434</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>3913</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>1603</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>1338</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>16370</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>305</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>6899</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>1345</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>247</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>28</v>
       </c>
-      <c r="AF76">
+      <c r="AG76">
         <v>550</v>
       </c>
-      <c r="AG76">
+      <c r="AH76">
         <v>172</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -6573,83 +6881,87 @@
       <c r="I77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="16">
+        <f t="shared" si="1"/>
+        <v>0.22441176470588234</v>
+      </c>
+      <c r="K77" s="3">
         <v>11.49</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
         <v>7.73</v>
       </c>
-      <c r="L77" s="3">
+      <c r="M77" s="3">
         <v>2.37</v>
       </c>
-      <c r="M77" s="3">
+      <c r="N77" s="3">
         <v>3.73</v>
       </c>
-      <c r="N77" s="6">
+      <c r="O77" s="6">
         <v>1.1194</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>403</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>11</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>318</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>69</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>349</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>206</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>4408</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>1430</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>4081</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>1656</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>1405</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>17538</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>306</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>5530</v>
       </c>
-      <c r="AC77">
+      <c r="AD77">
         <v>1128</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>246</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>27</v>
       </c>
-      <c r="AF77">
+      <c r="AG77">
         <v>568</v>
       </c>
-      <c r="AG77">
+      <c r="AH77">
         <v>177</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -6674,74 +6986,78 @@
       <c r="I78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="M78">
+      <c r="J78" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19424999999999998</v>
+      </c>
+      <c r="N78">
         <v>3.65</v>
       </c>
-      <c r="N78" s="2">
+      <c r="O78" s="2">
         <v>1.0613999999999999</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>400</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>13</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>313</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>68</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>340</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>199</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>4465</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>1435</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>4158</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>1703</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>1327</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>17777</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>299</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>5274</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>1209</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>233</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>26</v>
       </c>
-      <c r="AF78">
+      <c r="AG78">
         <v>586</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>182</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -6766,74 +7082,78 @@
       <c r="I79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="M79">
+      <c r="J79" s="16">
+        <f t="shared" si="1"/>
+        <v>0.15925</v>
+      </c>
+      <c r="N79">
         <v>3.65</v>
       </c>
-      <c r="N79" s="2">
+      <c r="O79" s="2">
         <v>1.1194</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>395</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>15</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>313</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>63</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>337</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>195</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>4487</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>1431</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>4288</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>1746</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>1254</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>17687</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>296</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>4968</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>1180</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>275</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>25</v>
       </c>
-      <c r="AF79">
+      <c r="AG79">
         <v>603</v>
       </c>
-      <c r="AG79">
+      <c r="AH79">
         <v>187</v>
       </c>
-      <c r="AH79">
+      <c r="AI79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -6858,74 +7178,78 @@
       <c r="I80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="M80">
+      <c r="J80" s="16">
+        <f t="shared" si="1"/>
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="N80">
         <v>3.97</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>1.1541999999999999</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>388</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>15</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>301</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>67</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>335</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>194</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>4507</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>1444</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>4365</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>1785</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>1363</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>18234</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>304</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>5516</v>
       </c>
-      <c r="AC80">
+      <c r="AD80">
         <v>999</v>
       </c>
-      <c r="AD80">
+      <c r="AE80">
         <v>197</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>24</v>
       </c>
-      <c r="AF80">
+      <c r="AG80">
         <v>621</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>192</v>
       </c>
-      <c r="AH80">
+      <c r="AI80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -6950,70 +7274,74 @@
       <c r="I81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="M81">
+      <c r="J81" s="16">
+        <f t="shared" si="1"/>
+        <v>0.22574999999999998</v>
+      </c>
+      <c r="N81">
         <v>3.97</v>
       </c>
-      <c r="N81" s="2">
+      <c r="O81" s="2">
         <v>1.1541999999999999</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>382</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>15</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>293</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>69</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>334</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>191</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>4609</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>1458</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>4387</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>1798</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>1269</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>18547</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>306</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>5325</v>
       </c>
-      <c r="AC81">
+      <c r="AD81">
         <v>1327</v>
       </c>
-      <c r="AD81">
+      <c r="AE81">
         <v>284</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>24</v>
       </c>
-      <c r="AF81">
+      <c r="AG81">
         <v>639</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>197</v>
       </c>
-      <c r="AH81">
+      <c r="AI81">
         <v>683</v>
       </c>
     </row>
@@ -7048,10 +7376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
-  <dimension ref="D1:AD100"/>
+  <dimension ref="C1:AD100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC2:AC27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7060,7 +7388,10 @@
     <col min="28" max="28" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="S1" t="s">
         <v>11</v>
       </c>
@@ -7074,7 +7405,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C2" s="17">
+        <v>0.27</v>
+      </c>
       <c r="S2">
         <v>6.2489999999999997</v>
       </c>
@@ -7102,7 +7436,10 @@
         <v>60.183900000000001</v>
       </c>
     </row>
-    <row r="3" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C3" s="17">
+        <v>0.34</v>
+      </c>
       <c r="S3">
         <v>5.8449999999999998</v>
       </c>
@@ -7129,7 +7466,10 @@
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="4" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C4" s="17">
+        <v>0.21</v>
+      </c>
       <c r="S4">
         <v>6.47</v>
       </c>
@@ -7156,7 +7496,10 @@
         <v>67.523399999999995</v>
       </c>
     </row>
-    <row r="5" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C5" s="17">
+        <v>0.48</v>
+      </c>
       <c r="S5">
         <v>7.8369999999999997</v>
       </c>
@@ -7183,7 +7526,10 @@
         <v>60.673200000000001</v>
       </c>
     </row>
-    <row r="6" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C6" s="17">
+        <v>0.33</v>
+      </c>
       <c r="S6">
         <v>7.7759999999999998</v>
       </c>
@@ -7210,7 +7556,10 @@
         <v>59.205300000000001</v>
       </c>
     </row>
-    <row r="7" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="17">
+        <v>0.48</v>
+      </c>
       <c r="S7">
         <v>7.9740000000000002</v>
       </c>
@@ -7237,7 +7586,10 @@
         <v>65.566200000000009</v>
       </c>
     </row>
-    <row r="8" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="17">
+        <v>0.53</v>
+      </c>
       <c r="S8">
         <v>8.0009999999999994</v>
       </c>
@@ -7264,7 +7616,10 @@
         <v>69.480599999999995</v>
       </c>
     </row>
-    <row r="9" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="17">
+        <v>0.25</v>
+      </c>
       <c r="S9">
         <v>6.4669999999999996</v>
       </c>
@@ -7291,7 +7646,10 @@
         <v>65.076900000000009</v>
       </c>
     </row>
-    <row r="10" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="17">
+        <v>0.31</v>
+      </c>
       <c r="S10">
         <v>6.7380000000000004</v>
       </c>
@@ -7318,7 +7676,10 @@
         <v>64.098300000000009</v>
       </c>
     </row>
-    <row r="11" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C11" s="17">
+        <v>0.43</v>
+      </c>
       <c r="S11">
         <v>7.702</v>
       </c>
@@ -7345,7 +7706,10 @@
         <v>65.076900000000009</v>
       </c>
     </row>
-    <row r="12" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C12" s="17">
+        <v>0.44</v>
+      </c>
       <c r="S12">
         <v>7.3120000000000003</v>
       </c>
@@ -7372,7 +7736,10 @@
         <v>78.288000000000011</v>
       </c>
     </row>
-    <row r="13" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C13" s="17">
+        <v>0.24</v>
+      </c>
       <c r="S13">
         <v>5.4210000000000003</v>
       </c>
@@ -7399,7 +7766,10 @@
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="14" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C14" s="17">
+        <v>0.2</v>
+      </c>
       <c r="S14">
         <v>5.1130000000000004</v>
       </c>
@@ -7426,7 +7796,10 @@
         <v>54.801600000000008</v>
       </c>
     </row>
-    <row r="15" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C15" s="17">
+        <v>0.4</v>
+      </c>
       <c r="S15">
         <v>5.7619999999999996</v>
       </c>
@@ -7453,7 +7826,10 @@
         <v>57.248099999999994</v>
       </c>
     </row>
-    <row r="16" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C16" s="17">
+        <v>0.22</v>
+      </c>
       <c r="S16">
         <v>6.4349999999999996</v>
       </c>
@@ -7480,7 +7856,10 @@
         <v>59.205300000000001</v>
       </c>
     </row>
-    <row r="17" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C17" s="17">
+        <v>0.34</v>
+      </c>
       <c r="S17">
         <v>7.1760000000000002</v>
       </c>
@@ -7507,7 +7886,10 @@
         <v>64.587600000000009</v>
       </c>
     </row>
-    <row r="18" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C18" s="17">
+        <v>0.49</v>
+      </c>
       <c r="S18">
         <v>6.8049999999999997</v>
       </c>
@@ -7534,7 +7916,10 @@
         <v>62.630400000000002</v>
       </c>
     </row>
-    <row r="19" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C19" s="17">
+        <v>0.37</v>
+      </c>
       <c r="S19">
         <v>6.7510000000000003</v>
       </c>
@@ -7561,7 +7946,10 @@
         <v>61.651800000000001</v>
       </c>
     </row>
-    <row r="20" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C20" s="17">
+        <v>0.46</v>
+      </c>
       <c r="S20">
         <v>8.4269999999999996</v>
       </c>
@@ -7588,7 +7976,10 @@
         <v>78.777300000000011</v>
       </c>
     </row>
-    <row r="21" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C21" s="17">
+        <v>0.44</v>
+      </c>
       <c r="S21">
         <v>7.7290000000000001</v>
       </c>
@@ -7615,7 +8006,10 @@
         <v>70.948499999999996</v>
       </c>
     </row>
-    <row r="22" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C22" s="17">
+        <v>0.4</v>
+      </c>
       <c r="S22">
         <v>6.6970000000000001</v>
       </c>
@@ -7642,7 +8036,10 @@
         <v>63.119700000000002</v>
       </c>
     </row>
-    <row r="23" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C23" s="17">
+        <v>0.5</v>
+      </c>
       <c r="S23">
         <v>6.0229999999999997</v>
       </c>
@@ -7669,7 +8066,10 @@
         <v>54.801600000000008</v>
       </c>
     </row>
-    <row r="24" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C24" s="17">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="S24">
         <v>5.2119999999999997</v>
       </c>
@@ -7696,7 +8096,10 @@
         <v>57.737399999999994</v>
       </c>
     </row>
-    <row r="25" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C25" s="17">
+        <v>0.35</v>
+      </c>
       <c r="S25">
         <v>6.3</v>
       </c>
@@ -7723,7 +8126,10 @@
         <v>64.587600000000009</v>
       </c>
     </row>
-    <row r="26" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C26" s="17">
+        <v>0.39</v>
+      </c>
       <c r="S26">
         <v>7.1369999999999996</v>
       </c>
@@ -7749,7 +8155,10 @@
         <v>76.213368000000003</v>
       </c>
     </row>
-    <row r="27" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C27" s="17">
+        <v>1.41</v>
+      </c>
       <c r="S27">
         <v>8.6210000000000004</v>
       </c>
@@ -7775,7 +8184,10 @@
         <v>113.0283</v>
       </c>
     </row>
-    <row r="28" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C28" s="17">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="S28" s="1">
         <v>9.9860000000000007</v>
       </c>
@@ -7817,7 +8229,10 @@
         <v>78.369905956112845</v>
       </c>
     </row>
-    <row r="29" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C29" s="17">
+        <v>1.28</v>
+      </c>
       <c r="S29">
         <v>6.4370000000000003</v>
       </c>
@@ -7859,7 +8274,10 @@
         <v>88.636363636363626</v>
       </c>
     </row>
-    <row r="30" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C30" s="17">
+        <v>0.94</v>
+      </c>
       <c r="S30">
         <v>5.8890000000000002</v>
       </c>
@@ -7901,7 +8319,10 @@
         <v>113.19073083778964</v>
       </c>
     </row>
-    <row r="31" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C31" s="17">
+        <v>0.96</v>
+      </c>
       <c r="S31" s="3">
         <v>7.0869999999999997</v>
       </c>
@@ -7943,7 +8364,10 @@
         <v>102.75165447579239</v>
       </c>
     </row>
-    <row r="32" spans="19:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C32" s="17">
+        <v>0.77</v>
+      </c>
       <c r="S32">
         <v>6.8890000000000002</v>
       </c>
@@ -7985,7 +8409,10 @@
         <v>112.29946524064169</v>
       </c>
     </row>
-    <row r="33" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C33" s="17">
+        <v>0.87</v>
+      </c>
       <c r="S33">
         <v>7.4989999999999997</v>
       </c>
@@ -8027,7 +8454,10 @@
         <v>85.129646985317095</v>
       </c>
     </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C34" s="17">
+        <v>0.87</v>
+      </c>
       <c r="S34">
         <v>9.3539999999999992</v>
       </c>
@@ -8069,7 +8499,10 @@
         <v>63.411896745230067</v>
       </c>
     </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C35" s="17">
+        <v>1.17</v>
+      </c>
       <c r="S35">
         <v>11.162000000000001</v>
       </c>
@@ -8111,7 +8544,10 @@
         <v>55.790462767206954</v>
       </c>
     </row>
-    <row r="36" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C36" s="17">
+        <v>0.84</v>
+      </c>
       <c r="S36">
         <v>12.781000000000001</v>
       </c>
@@ -8153,7 +8589,10 @@
         <v>37.667174538682922</v>
       </c>
     </row>
-    <row r="37" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C37" s="17">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="S37" s="3">
         <v>8.6880000000000006</v>
       </c>
@@ -8195,7 +8634,10 @@
         <v>36.099247508643479</v>
       </c>
     </row>
-    <row r="38" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C38" s="17">
+        <v>0.99</v>
+      </c>
       <c r="S38">
         <v>8.3629999999999995</v>
       </c>
@@ -8237,7 +8679,10 @@
         <v>48.31782390837509</v>
       </c>
     </row>
-    <row r="39" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C39" s="17">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="S39">
         <v>7.7290000000000001</v>
       </c>
@@ -8279,7 +8724,10 @@
         <v>54.961378490790253</v>
       </c>
     </row>
-    <row r="40" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C40" s="17">
+        <v>0.69</v>
+      </c>
       <c r="S40">
         <v>8.9870000000000001</v>
       </c>
@@ -8321,7 +8769,10 @@
         <v>43.560606060606055</v>
       </c>
     </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C41" s="17">
+        <v>1.03</v>
+      </c>
       <c r="S41">
         <v>10.718999999999999</v>
       </c>
@@ -8363,7 +8814,10 @@
         <v>39.842873176206503</v>
       </c>
     </row>
-    <row r="42" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C42" s="17">
+        <v>0.88</v>
+      </c>
       <c r="S42">
         <v>8.6880000000000006</v>
       </c>
@@ -8405,7 +8859,10 @@
         <v>50.940438871473347</v>
       </c>
     </row>
-    <row r="43" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C43" s="17">
+        <v>0.7</v>
+      </c>
       <c r="S43">
         <v>7.7290000000000001</v>
       </c>
@@ -8447,7 +8904,10 @@
         <v>52.821795941062</v>
       </c>
     </row>
-    <row r="44" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C44" s="17">
+        <v>0.49</v>
+      </c>
       <c r="M44" t="s">
         <v>31</v>
       </c>
@@ -8495,7 +8955,10 @@
         <v>50.26223776223776</v>
       </c>
     </row>
-    <row r="45" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C45" s="17">
+        <v>0.51</v>
+      </c>
       <c r="D45">
         <v>88</v>
       </c>
@@ -8572,7 +9035,10 @@
         <v>51.990493166963752</v>
       </c>
     </row>
-    <row r="46" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C46" s="17">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="D46">
         <v>323</v>
       </c>
@@ -8649,7 +9115,10 @@
         <v>47.430830039525688</v>
       </c>
     </row>
-    <row r="47" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C47" s="17">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="D47">
         <v>254</v>
       </c>
@@ -8726,7 +9195,10 @@
         <v>29.623154623154623</v>
       </c>
     </row>
-    <row r="48" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C48" s="17">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="D48">
         <v>292</v>
       </c>
@@ -8803,7 +9275,10 @@
         <v>35.082367297132393</v>
       </c>
     </row>
-    <row r="49" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C49" s="17">
+        <v>0.52</v>
+      </c>
       <c r="D49">
         <v>215</v>
       </c>
@@ -8880,7 +9355,10 @@
         <v>36.656891495601165</v>
       </c>
     </row>
-    <row r="50" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C50" s="17">
+        <v>0.45</v>
+      </c>
       <c r="D50">
         <v>219</v>
       </c>
@@ -8957,7 +9435,10 @@
         <v>46.068796068796061</v>
       </c>
     </row>
-    <row r="51" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C51" s="17">
+        <v>0.54</v>
+      </c>
       <c r="D51">
         <v>175</v>
       </c>
@@ -9034,7 +9515,10 @@
         <v>62.275295326142782</v>
       </c>
     </row>
-    <row r="52" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C52" s="17">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="D52">
         <v>199</v>
       </c>
@@ -9111,7 +9595,10 @@
         <v>52.266854592435983</v>
       </c>
     </row>
-    <row r="53" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C53" s="17">
+        <v>0.84</v>
+      </c>
       <c r="D53">
         <v>223</v>
       </c>
@@ -9188,7 +9675,10 @@
         <v>50.125313283208015</v>
       </c>
     </row>
-    <row r="54" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C54" s="17">
+        <v>0.6</v>
+      </c>
       <c r="D54">
         <v>300</v>
       </c>
@@ -9265,7 +9755,10 @@
         <v>87.12121212121211</v>
       </c>
     </row>
-    <row r="55" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C55" s="17">
+        <v>0.38</v>
+      </c>
       <c r="D55">
         <v>215</v>
       </c>
@@ -9342,7 +9835,10 @@
         <v>48.783287419651053</v>
       </c>
     </row>
-    <row r="56" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C56" s="17">
+        <v>0.44</v>
+      </c>
       <c r="D56">
         <v>150</v>
       </c>
@@ -9419,7 +9915,10 @@
         <v>55.916305916305909</v>
       </c>
     </row>
-    <row r="57" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C57" s="17">
+        <v>0.42</v>
+      </c>
       <c r="D57">
         <v>254</v>
       </c>
@@ -9496,7 +9995,10 @@
         <v>54.644808743169392</v>
       </c>
     </row>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C58" s="17">
+        <v>0.69</v>
+      </c>
       <c r="D58">
         <v>146</v>
       </c>
@@ -9573,7 +10075,10 @@
         <v>52.047189451769604</v>
       </c>
     </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C59" s="17">
+        <v>0.52</v>
+      </c>
       <c r="D59">
         <v>177</v>
       </c>
@@ -9650,7 +10155,10 @@
         <v>60.233482364629893</v>
       </c>
     </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C60" s="17">
+        <v>0.71</v>
+      </c>
       <c r="D60">
         <v>265</v>
       </c>
@@ -9727,7 +10235,10 @@
         <v>64.843348741653827</v>
       </c>
     </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C61" s="17">
+        <v>0.36</v>
+      </c>
       <c r="D61">
         <v>227</v>
       </c>
@@ -9804,7 +10315,10 @@
         <v>57.814992025518336</v>
       </c>
     </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C62" s="17">
+        <v>0.27</v>
+      </c>
       <c r="D62">
         <v>181</v>
       </c>
@@ -9881,7 +10395,10 @@
         <v>55.644945025475998</v>
       </c>
     </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C63" s="17">
+        <v>0.27</v>
+      </c>
       <c r="D63">
         <v>127</v>
       </c>
@@ -9958,7 +10475,10 @@
         <v>48.74835309617918</v>
       </c>
     </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C64" s="17">
+        <v>0.27</v>
+      </c>
       <c r="D64">
         <v>131</v>
       </c>
@@ -10035,7 +10555,10 @@
         <v>49.822549822549817</v>
       </c>
     </row>
-    <row r="65" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C65" s="17">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="D65">
         <v>146</v>
       </c>
@@ -10112,7 +10635,10 @@
         <v>47.884505431675237</v>
       </c>
     </row>
-    <row r="66" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C66" s="17">
+        <v>0.25</v>
+      </c>
       <c r="D66">
         <v>173</v>
       </c>
@@ -10189,7 +10715,10 @@
         <v>53.787878787878782</v>
       </c>
     </row>
-    <row r="67" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C67" s="17">
+        <v>0.2</v>
+      </c>
       <c r="D67">
         <v>200</v>
       </c>
@@ -10266,7 +10795,10 @@
         <v>66.518847006651882</v>
       </c>
     </row>
-    <row r="68" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C68" s="17">
+        <v>0.26</v>
+      </c>
       <c r="D68">
         <v>177</v>
       </c>
@@ -10343,7 +10875,10 @@
         <v>54.112554112554108</v>
       </c>
     </row>
-    <row r="69" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C69" s="17">
+        <v>0.21</v>
+      </c>
       <c r="D69">
         <v>154</v>
       </c>
@@ -10420,7 +10955,10 @@
         <v>51.515151515151516</v>
       </c>
     </row>
-    <row r="70" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C70" s="17">
+        <v>0.19</v>
+      </c>
       <c r="D70">
         <v>185</v>
       </c>
@@ -10497,7 +11035,10 @@
         <v>56.060606060606055</v>
       </c>
     </row>
-    <row r="71" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C71" s="17">
+        <v>0.21</v>
+      </c>
       <c r="D71">
         <v>196</v>
       </c>
@@ -10574,7 +11115,10 @@
         <v>55.861646770737678</v>
       </c>
     </row>
-    <row r="72" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C72" s="17">
+        <v>0.3</v>
+      </c>
       <c r="D72">
         <v>312</v>
       </c>
@@ -10651,7 +11195,10 @@
         <v>48.024891774891778</v>
       </c>
     </row>
-    <row r="73" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C73" s="17">
+        <v>0.4</v>
+      </c>
       <c r="D73">
         <v>223</v>
       </c>
@@ -10728,7 +11275,10 @@
         <v>49.561030869442078</v>
       </c>
     </row>
-    <row r="74" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C74" s="17">
+        <v>0.35</v>
+      </c>
       <c r="D74">
         <v>142</v>
       </c>
@@ -10805,7 +11355,10 @@
         <v>49.279199764636651</v>
       </c>
     </row>
-    <row r="75" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C75" s="17">
+        <v>0.25</v>
+      </c>
       <c r="D75">
         <v>162</v>
       </c>
@@ -10882,7 +11435,10 @@
         <v>46.728971962616818</v>
       </c>
     </row>
-    <row r="76" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C76" s="17">
+        <v>0.2</v>
+      </c>
       <c r="D76">
         <v>163</v>
       </c>
@@ -10959,7 +11515,10 @@
         <v>50.750220653133269</v>
       </c>
     </row>
-    <row r="77" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C77" s="17">
+        <v>0.22</v>
+      </c>
       <c r="D77">
         <v>277</v>
       </c>
@@ -11036,7 +11595,10 @@
         <v>53.88940955951265</v>
       </c>
     </row>
-    <row r="78" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C78" s="17">
+        <v>0.19</v>
+      </c>
       <c r="D78">
         <v>208</v>
       </c>
@@ -11113,7 +11675,10 @@
         <v>52.566481137909705</v>
       </c>
     </row>
-    <row r="79" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C79" s="17">
+        <v>0.16</v>
+      </c>
       <c r="D79">
         <v>285</v>
       </c>
@@ -11190,7 +11755,10 @@
         <v>44.19191919191919</v>
       </c>
     </row>
-    <row r="80" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C80" s="17">
+        <v>0.17</v>
+      </c>
       <c r="D80">
         <v>142</v>
       </c>
@@ -11267,7 +11835,10 @@
         <v>50.255025502550261</v>
       </c>
     </row>
-    <row r="81" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C81" s="17">
+        <v>0.23</v>
+      </c>
       <c r="D81">
         <v>108</v>
       </c>
@@ -11344,7 +11915,7 @@
         <v>49.783549783549788</v>
       </c>
     </row>
-    <row r="82" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D82">
         <v>108</v>
       </c>
@@ -11397,7 +11968,7 @@
         <v>48.933276742663004</v>
       </c>
     </row>
-    <row r="83" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>108</v>
       </c>
@@ -11438,7 +12009,7 @@
         <v>64.262267447157114</v>
       </c>
     </row>
-    <row r="84" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>117</v>
       </c>
@@ -11475,7 +12046,7 @@
         <v>1.2238</v>
       </c>
     </row>
-    <row r="85" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>100</v>
       </c>
@@ -11512,7 +12083,7 @@
         <v>1.1774</v>
       </c>
     </row>
-    <row r="86" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>81</v>
       </c>
@@ -11549,7 +12120,7 @@
         <v>1.1194</v>
       </c>
     </row>
-    <row r="87" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>105</v>
       </c>
@@ -11586,7 +12157,7 @@
         <v>1.1194</v>
       </c>
     </row>
-    <row r="88" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D88">
         <v>85</v>
       </c>
@@ -11623,7 +12194,7 @@
         <v>1.1194</v>
       </c>
     </row>
-    <row r="89" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D89">
         <v>75</v>
       </c>
@@ -11660,7 +12231,7 @@
         <v>1.1194</v>
       </c>
     </row>
-    <row r="90" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D90">
         <v>82</v>
       </c>
@@ -11697,7 +12268,7 @@
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="91" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D91">
         <v>139</v>
       </c>
@@ -11734,7 +12305,7 @@
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="92" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D92">
         <v>170</v>
       </c>
@@ -11771,7 +12342,7 @@
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="93" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D93">
         <v>149</v>
       </c>
@@ -11808,7 +12379,7 @@
         <v>1.3281999999999998</v>
       </c>
     </row>
-    <row r="94" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D94">
         <v>123</v>
       </c>
@@ -11845,7 +12416,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="95" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D95">
         <v>102</v>
       </c>
@@ -11882,7 +12453,7 @@
         <v>1.2121999999999999</v>
       </c>
     </row>
-    <row r="96" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="D96">
         <v>109</v>
       </c>

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E4AF8-0B7C-B54C-8F94-4FF89DD14BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F98DFB-19A8-A44B-AF97-BD831E8F2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" activeTab="2" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Draft" sheetId="3" r:id="rId3"/>
+    <sheet name="Draft2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -574,9 +575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28:AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7378,9 +7379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C18A9-4F48-4D4D-9F77-EF08D571A3B2}">
   <dimension ref="C1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12642,4 +12641,916 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E97EE-48EF-AA45-8A22-7F369BB74D6D}">
+  <dimension ref="A1:C81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A35" sqref="A21:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1821</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <f>23.67/4.85</f>
+        <v>4.880412371134021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1822</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1823</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1824</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1825</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1826</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1827</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1828</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1829</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1830</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1831</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1832</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1833</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1834</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1835</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1836</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1837</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1838</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1839</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1840</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1841</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1842</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1843</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1844</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1845</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1846</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>1847</v>
+      </c>
+      <c r="B28" s="12">
+        <v>16</v>
+      </c>
+      <c r="C28" s="12">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1848</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1849</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1850</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1851</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1852</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1853</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1854</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1855</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1856</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1857</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1858</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1859</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1860</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1861</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>15.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1862</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1863</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1864</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1865</v>
+      </c>
+      <c r="B46">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1866</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1867</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1868</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>12.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1869</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1870</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1871</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1872</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1873</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1874</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1875</v>
+      </c>
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1876</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57" s="3">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>1877</v>
+      </c>
+      <c r="B58" s="14">
+        <v>28</v>
+      </c>
+      <c r="C58" s="14">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>1878</v>
+      </c>
+      <c r="B59" s="14">
+        <v>28</v>
+      </c>
+      <c r="C59" s="14">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>1879</v>
+      </c>
+      <c r="B60" s="14">
+        <v>28</v>
+      </c>
+      <c r="C60" s="14">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1880</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1881</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1882</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1883</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1884</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1885</v>
+      </c>
+      <c r="B66">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1886</v>
+      </c>
+      <c r="B67">
+        <v>28</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1887</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1888</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1889</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1890</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1891</v>
+      </c>
+      <c r="B72">
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1892</v>
+      </c>
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1893</v>
+      </c>
+      <c r="B74">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1894</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1895</v>
+      </c>
+      <c r="B76">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1896</v>
+      </c>
+      <c r="B77">
+        <v>34</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1897</v>
+      </c>
+      <c r="B78">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1898</v>
+      </c>
+      <c r="B79">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1899</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1900</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F98DFB-19A8-A44B-AF97-BD831E8F2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76F393-742A-D84C-9969-A0744A172231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -257,7 +257,6 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +576,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28:AD28"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +748,7 @@
       <c r="I2" s="10">
         <v>1.23</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="2">
         <f>G2/D2</f>
         <v>0.27113402061855674</v>
       </c>
@@ -795,7 +794,7 @@
       <c r="I3" s="10">
         <v>1.29</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="0">G3/D3</f>
         <v>0.33999999999999997</v>
       </c>
@@ -837,7 +836,7 @@
       <c r="I4" s="10">
         <v>1.38</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0.21388888888888891</v>
       </c>
@@ -879,7 +878,7 @@
       <c r="I5" s="10">
         <v>1.24</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
@@ -924,7 +923,7 @@
       <c r="I6" s="10">
         <v>1.21</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>0.33124999999999999</v>
       </c>
@@ -966,7 +965,7 @@
       <c r="I7" s="10">
         <v>1.34</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>0.48125000000000001</v>
       </c>
@@ -1008,7 +1007,7 @@
       <c r="I8" s="10">
         <v>1.42</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
@@ -1050,7 +1049,7 @@
       <c r="I9" s="10">
         <v>1.33</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>0.25374999999999998</v>
       </c>
@@ -1092,7 +1091,7 @@
       <c r="I10" s="2">
         <v>1.31</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>0.3075</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="I11" s="2">
         <v>1.33</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>0.43312499999999998</v>
       </c>
@@ -1179,7 +1178,7 @@
       <c r="I12" s="2">
         <v>1.6</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>0.4425</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="I13" s="2">
         <v>1.29</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="2">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -1263,7 +1262,7 @@
       <c r="I14" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="2">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -1305,7 +1304,7 @@
       <c r="I15" s="2">
         <v>1.17</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>0.40250000000000002</v>
       </c>
@@ -1350,7 +1349,7 @@
       <c r="I16" s="2">
         <v>1.21</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="2">
         <f t="shared" si="0"/>
         <v>0.22375</v>
       </c>
@@ -1392,7 +1391,7 @@
       <c r="I17" s="2">
         <v>1.32</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="2">
         <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
@@ -1434,7 +1433,7 @@
       <c r="I18" s="2">
         <v>1.28</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
         <v>0.49375000000000002</v>
       </c>
@@ -1476,7 +1475,7 @@
       <c r="I19" s="2">
         <v>1.26</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="2">
         <f t="shared" si="0"/>
         <v>0.36812499999999998</v>
       </c>
@@ -1518,7 +1517,7 @@
       <c r="I20" s="2">
         <v>1.61</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="2">
         <f t="shared" si="0"/>
         <v>0.45624999999999999</v>
       </c>
@@ -1581,7 +1580,7 @@
       <c r="I21" s="2">
         <v>1.45</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="2">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
@@ -1647,7 +1646,7 @@
       <c r="I22" s="2">
         <v>1.29</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="2">
         <f t="shared" si="0"/>
         <v>0.395625</v>
       </c>
@@ -1713,7 +1712,7 @@
       <c r="I23" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
         <v>0.49812499999999998</v>
       </c>
@@ -1773,7 +1772,7 @@
       <c r="I24" s="2">
         <v>1.18</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="2">
         <f t="shared" si="0"/>
         <v>0.28187499999999999</v>
       </c>
@@ -1833,7 +1832,7 @@
       <c r="I25" s="2">
         <v>1.32</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
         <v>0.34625</v>
       </c>
@@ -1893,7 +1892,7 @@
       <c r="I26" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="2">
         <f t="shared" si="0"/>
         <v>0.38500000000000001</v>
       </c>
@@ -1959,7 +1958,7 @@
       <c r="I27" s="2">
         <v>2.31</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="2">
         <f t="shared" si="0"/>
         <v>1.413125</v>
       </c>
@@ -2025,7 +2024,7 @@
       <c r="I28" s="13">
         <v>1.5312000000000001</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="2">
         <f t="shared" si="0"/>
         <v>1.1112500000000001</v>
       </c>
@@ -2121,7 +2120,7 @@
       <c r="I29" s="2">
         <v>1.32</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="2">
         <f t="shared" si="0"/>
         <v>1.2775000000000001</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="I30" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="2">
         <f t="shared" si="0"/>
         <v>0.94062500000000004</v>
       </c>
@@ -2316,7 +2315,7 @@
       <c r="I31" s="6">
         <v>1.1484000000000001</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="2">
         <f t="shared" si="0"/>
         <v>0.958125</v>
       </c>
@@ -2424,7 +2423,7 @@
       <c r="I32" s="2">
         <v>1.1220000000000001</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="2">
         <f t="shared" si="0"/>
         <v>0.765625</v>
       </c>
@@ -2523,7 +2522,7 @@
       <c r="I33" s="2">
         <v>1.2804</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>0.87062499999999998</v>
       </c>
@@ -2622,7 +2621,7 @@
       <c r="I34" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
         <v>0.86722222222222223</v>
       </c>
@@ -2721,7 +2720,7 @@
       <c r="I35" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="2">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="I36" s="2">
         <v>2.3628</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="2">
         <f t="shared" si="0"/>
         <v>0.83611111111111114</v>
       </c>
@@ -2919,7 +2918,7 @@
       <c r="I37" s="6">
         <v>1.9668000000000001</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
@@ -3027,7 +3026,7 @@
       <c r="I38" s="2">
         <v>1.6764000000000001</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="2">
         <f t="shared" si="0"/>
         <v>0.98777777777777787</v>
       </c>
@@ -3126,7 +3125,7 @@
       <c r="I39" s="2">
         <v>1.3464</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="2">
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
@@ -3225,7 +3224,7 @@
       <c r="I40" s="2">
         <v>1.5840000000000001</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="2">
         <f t="shared" si="0"/>
         <v>0.68833333333333335</v>
       </c>
@@ -3324,7 +3323,7 @@
       <c r="I41" s="2">
         <v>1.7820000000000003</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="2">
         <f t="shared" si="0"/>
         <v>1.0305555555555557</v>
       </c>
@@ -3423,7 +3422,7 @@
       <c r="I42" s="2">
         <v>1.5312000000000001</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="2">
         <f t="shared" si="0"/>
         <v>0.88277777777777777</v>
       </c>
@@ -3522,7 +3521,7 @@
       <c r="I43" s="2">
         <v>1.4387999999999999</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="2">
         <f t="shared" si="0"/>
         <v>0.7038888888888889</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="I44" s="2">
         <v>1.3728</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="2">
         <f t="shared" si="0"/>
         <v>0.49388888888888893</v>
       </c>
@@ -3720,7 +3719,7 @@
       <c r="I45" s="2">
         <v>1.3464</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="2">
         <f t="shared" si="0"/>
         <v>0.50944444444444448</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="I46" s="2">
         <v>1.518</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="2">
         <f t="shared" si="0"/>
         <v>0.56777777777777783</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="I47" s="6">
         <v>2.0592000000000001</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="2">
         <f t="shared" si="0"/>
         <v>0.57666666666666666</v>
       </c>
@@ -4026,7 +4025,7 @@
       <c r="I48" s="2">
         <v>1.9668000000000001</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="2">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="I49" s="2">
         <v>2.0460000000000003</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="2">
         <f t="shared" si="0"/>
         <v>0.51624999999999999</v>
       </c>
@@ -4224,7 +4223,7 @@
       <c r="I50" s="2">
         <v>1.9536000000000002</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="2">
         <f t="shared" si="0"/>
         <v>0.44916666666666666</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="I51" s="2">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>0.5395833333333333</v>
       </c>
@@ -4422,7 +4421,7 @@
       <c r="I52" s="2">
         <v>1.7028000000000001</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="2">
         <f t="shared" si="0"/>
         <v>0.57166666666666666</v>
       </c>
@@ -4521,7 +4520,7 @@
       <c r="I53" s="2">
         <v>1.7556</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="2">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
@@ -4620,7 +4619,7 @@
       <c r="I54" s="2">
         <v>1.056</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="2">
         <f t="shared" si="0"/>
         <v>0.60038461538461541</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="I55" s="2">
         <v>1.7424000000000002</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="2">
         <f t="shared" si="0"/>
         <v>0.38230769230769229</v>
       </c>
@@ -4818,7 +4817,7 @@
       <c r="I56" s="2">
         <v>1.6632000000000002</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="2">
         <f t="shared" si="0"/>
         <v>0.43615384615384617</v>
       </c>
@@ -4917,7 +4916,7 @@
       <c r="I57" s="6">
         <v>1.6104000000000003</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="2">
         <f t="shared" si="0"/>
         <v>0.42259259259259258</v>
       </c>
@@ -5025,7 +5024,7 @@
       <c r="I58" s="15">
         <v>1.7292000000000001</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="2">
         <f t="shared" si="0"/>
         <v>0.6925</v>
       </c>
@@ -5124,7 +5123,7 @@
       <c r="I59" s="15">
         <v>1.6104000000000003</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="2">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="I60" s="15">
         <v>1.5576000000000001</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="2">
         <f t="shared" si="0"/>
         <v>0.71250000000000002</v>
       </c>
@@ -5322,7 +5321,7 @@
       <c r="I61" s="2">
         <v>1.5048000000000001</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="2">
         <f t="shared" si="0"/>
         <v>0.35499999999999998</v>
       </c>
@@ -5421,7 +5420,7 @@
       <c r="I62" s="2">
         <v>1.4916</v>
       </c>
-      <c r="J62" s="16">
+      <c r="J62" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
@@ -5520,7 +5519,7 @@
       <c r="I63" s="2">
         <v>1.518</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="I64" s="2">
         <v>1.4652000000000001</v>
       </c>
-      <c r="J64" s="16">
+      <c r="J64" s="2">
         <f t="shared" si="0"/>
         <v>0.26999999999999996</v>
       </c>
@@ -5718,7 +5717,7 @@
       <c r="I65" s="2">
         <v>1.3992000000000002</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="2">
         <f t="shared" si="0"/>
         <v>0.29249999999999998</v>
       </c>
@@ -5817,7 +5816,7 @@
       <c r="I66" s="2">
         <v>1.32</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J66" s="2">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -5913,7 +5912,7 @@
       <c r="I67" s="6">
         <v>1.0824</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="2">
         <f t="shared" ref="J67:J81" si="1">G67/D67</f>
         <v>0.20249999999999999</v>
       </c>
@@ -6018,7 +6017,7 @@
       <c r="I68" s="2">
         <v>1.2012</v>
       </c>
-      <c r="J68" s="16">
+      <c r="J68" s="2">
         <f t="shared" si="1"/>
         <v>0.26250000000000001</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="I69" s="2">
         <v>1.32</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="2">
         <f t="shared" si="1"/>
         <v>0.21249999999999999</v>
       </c>
@@ -6210,7 +6209,7 @@
       <c r="I70" s="2">
         <v>1.32</v>
       </c>
-      <c r="J70" s="16">
+      <c r="J70" s="2">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
@@ -6306,7 +6305,7 @@
       <c r="I71" s="2">
         <v>1.3068</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="2">
         <f t="shared" si="1"/>
         <v>0.20500000000000002</v>
       </c>
@@ -6402,7 +6401,7 @@
       <c r="I72" s="2">
         <v>1.4783999999999999</v>
       </c>
-      <c r="J72" s="16">
+      <c r="J72" s="2">
         <f t="shared" si="1"/>
         <v>0.30406250000000001</v>
       </c>
@@ -6498,7 +6497,7 @@
       <c r="I73" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="2">
         <f t="shared" si="1"/>
         <v>0.39666666666666667</v>
       </c>
@@ -6594,7 +6593,7 @@
       <c r="I74" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="2">
         <f t="shared" si="1"/>
         <v>0.34766666666666668</v>
       </c>
@@ -6690,7 +6689,7 @@
       <c r="I75" s="2">
         <v>1.4124000000000001</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="2">
         <f t="shared" si="1"/>
         <v>0.25323529411764706</v>
       </c>
@@ -6786,7 +6785,7 @@
       <c r="I76" s="2">
         <v>1.3596000000000001</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="2">
         <f t="shared" si="1"/>
         <v>0.19833333333333333</v>
       </c>
@@ -6882,7 +6881,7 @@
       <c r="I77" s="6">
         <v>1.2804</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="2">
         <f t="shared" si="1"/>
         <v>0.22441176470588234</v>
       </c>
@@ -6987,7 +6986,7 @@
       <c r="I78" s="2">
         <v>1.2936000000000001</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J78" s="2">
         <f t="shared" si="1"/>
         <v>0.19424999999999998</v>
       </c>
@@ -7083,7 +7082,7 @@
       <c r="I79" s="2">
         <v>1.4256</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J79" s="2">
         <f t="shared" si="1"/>
         <v>0.15925</v>
       </c>
@@ -7179,7 +7178,7 @@
       <c r="I80" s="2">
         <v>1.3331999999999999</v>
       </c>
-      <c r="J80" s="16">
+      <c r="J80" s="2">
         <f t="shared" si="1"/>
         <v>0.17150000000000001</v>
       </c>
@@ -7275,7 +7274,7 @@
       <c r="I81" s="2">
         <v>1.3859999999999999</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="2">
         <f t="shared" si="1"/>
         <v>0.22574999999999998</v>
       </c>
@@ -7388,7 +7387,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="S1" t="s">
@@ -7405,7 +7404,7 @@
       </c>
     </row>
     <row r="2" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0.27</v>
       </c>
       <c r="S2">
@@ -7436,7 +7435,7 @@
       </c>
     </row>
     <row r="3" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.34</v>
       </c>
       <c r="S3">
@@ -7466,7 +7465,7 @@
       </c>
     </row>
     <row r="4" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.21</v>
       </c>
       <c r="S4">
@@ -7496,7 +7495,7 @@
       </c>
     </row>
     <row r="5" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.48</v>
       </c>
       <c r="S5">
@@ -7526,7 +7525,7 @@
       </c>
     </row>
     <row r="6" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>0.33</v>
       </c>
       <c r="S6">
@@ -7556,7 +7555,7 @@
       </c>
     </row>
     <row r="7" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>0.48</v>
       </c>
       <c r="S7">
@@ -7586,7 +7585,7 @@
       </c>
     </row>
     <row r="8" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.53</v>
       </c>
       <c r="S8">
@@ -7616,7 +7615,7 @@
       </c>
     </row>
     <row r="9" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.25</v>
       </c>
       <c r="S9">
@@ -7646,7 +7645,7 @@
       </c>
     </row>
     <row r="10" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>0.31</v>
       </c>
       <c r="S10">
@@ -7676,7 +7675,7 @@
       </c>
     </row>
     <row r="11" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>0.43</v>
       </c>
       <c r="S11">
@@ -7706,7 +7705,7 @@
       </c>
     </row>
     <row r="12" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>0.44</v>
       </c>
       <c r="S12">
@@ -7736,7 +7735,7 @@
       </c>
     </row>
     <row r="13" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.24</v>
       </c>
       <c r="S13">
@@ -7766,7 +7765,7 @@
       </c>
     </row>
     <row r="14" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>0.2</v>
       </c>
       <c r="S14">
@@ -7796,7 +7795,7 @@
       </c>
     </row>
     <row r="15" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>0.4</v>
       </c>
       <c r="S15">
@@ -7826,7 +7825,7 @@
       </c>
     </row>
     <row r="16" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.22</v>
       </c>
       <c r="S16">
@@ -7856,7 +7855,7 @@
       </c>
     </row>
     <row r="17" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>0.34</v>
       </c>
       <c r="S17">
@@ -7886,7 +7885,7 @@
       </c>
     </row>
     <row r="18" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>0.49</v>
       </c>
       <c r="S18">
@@ -7916,7 +7915,7 @@
       </c>
     </row>
     <row r="19" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>0.37</v>
       </c>
       <c r="S19">
@@ -7946,7 +7945,7 @@
       </c>
     </row>
     <row r="20" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>0.46</v>
       </c>
       <c r="S20">
@@ -7976,7 +7975,7 @@
       </c>
     </row>
     <row r="21" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>0.44</v>
       </c>
       <c r="S21">
@@ -8006,7 +8005,7 @@
       </c>
     </row>
     <row r="22" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>0.4</v>
       </c>
       <c r="S22">
@@ -8036,7 +8035,7 @@
       </c>
     </row>
     <row r="23" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>0.5</v>
       </c>
       <c r="S23">
@@ -8066,7 +8065,7 @@
       </c>
     </row>
     <row r="24" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>0.28000000000000003</v>
       </c>
       <c r="S24">
@@ -8096,7 +8095,7 @@
       </c>
     </row>
     <row r="25" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>0.35</v>
       </c>
       <c r="S25">
@@ -8126,7 +8125,7 @@
       </c>
     </row>
     <row r="26" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>0.39</v>
       </c>
       <c r="S26">
@@ -8155,7 +8154,7 @@
       </c>
     </row>
     <row r="27" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>1.41</v>
       </c>
       <c r="S27">
@@ -8184,7 +8183,7 @@
       </c>
     </row>
     <row r="28" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>1.1100000000000001</v>
       </c>
       <c r="S28" s="1">
@@ -8229,7 +8228,7 @@
       </c>
     </row>
     <row r="29" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>1.28</v>
       </c>
       <c r="S29">
@@ -8274,7 +8273,7 @@
       </c>
     </row>
     <row r="30" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>0.94</v>
       </c>
       <c r="S30">
@@ -8319,7 +8318,7 @@
       </c>
     </row>
     <row r="31" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>0.96</v>
       </c>
       <c r="S31" s="3">
@@ -8364,7 +8363,7 @@
       </c>
     </row>
     <row r="32" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>0.77</v>
       </c>
       <c r="S32">
@@ -8409,7 +8408,7 @@
       </c>
     </row>
     <row r="33" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>0.87</v>
       </c>
       <c r="S33">
@@ -8454,7 +8453,7 @@
       </c>
     </row>
     <row r="34" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>0.87</v>
       </c>
       <c r="S34">
@@ -8499,7 +8498,7 @@
       </c>
     </row>
     <row r="35" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>1.17</v>
       </c>
       <c r="S35">
@@ -8544,7 +8543,7 @@
       </c>
     </row>
     <row r="36" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>0.84</v>
       </c>
       <c r="S36">
@@ -8589,7 +8588,7 @@
       </c>
     </row>
     <row r="37" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>0.57999999999999996</v>
       </c>
       <c r="S37" s="3">
@@ -8634,7 +8633,7 @@
       </c>
     </row>
     <row r="38" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>0.99</v>
       </c>
       <c r="S38">
@@ -8679,7 +8678,7 @@
       </c>
     </row>
     <row r="39" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>0.56999999999999995</v>
       </c>
       <c r="S39">
@@ -8724,7 +8723,7 @@
       </c>
     </row>
     <row r="40" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>0.69</v>
       </c>
       <c r="S40">
@@ -8769,7 +8768,7 @@
       </c>
     </row>
     <row r="41" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>1.03</v>
       </c>
       <c r="S41">
@@ -8814,7 +8813,7 @@
       </c>
     </row>
     <row r="42" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>0.88</v>
       </c>
       <c r="S42">
@@ -8859,7 +8858,7 @@
       </c>
     </row>
     <row r="43" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>0.7</v>
       </c>
       <c r="S43">
@@ -8904,7 +8903,7 @@
       </c>
     </row>
     <row r="44" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>0.49</v>
       </c>
       <c r="M44" t="s">
@@ -8955,7 +8954,7 @@
       </c>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>0.51</v>
       </c>
       <c r="D45">
@@ -9035,7 +9034,7 @@
       </c>
     </row>
     <row r="46" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>0.56999999999999995</v>
       </c>
       <c r="D46">
@@ -9115,7 +9114,7 @@
       </c>
     </row>
     <row r="47" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>0.57999999999999996</v>
       </c>
       <c r="D47">
@@ -9195,7 +9194,7 @@
       </c>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>0.57999999999999996</v>
       </c>
       <c r="D48">
@@ -9275,7 +9274,7 @@
       </c>
     </row>
     <row r="49" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>0.52</v>
       </c>
       <c r="D49">
@@ -9355,7 +9354,7 @@
       </c>
     </row>
     <row r="50" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>0.45</v>
       </c>
       <c r="D50">
@@ -9435,7 +9434,7 @@
       </c>
     </row>
     <row r="51" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>0.54</v>
       </c>
       <c r="D51">
@@ -9515,7 +9514,7 @@
       </c>
     </row>
     <row r="52" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>0.56999999999999995</v>
       </c>
       <c r="D52">
@@ -9595,7 +9594,7 @@
       </c>
     </row>
     <row r="53" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>0.84</v>
       </c>
       <c r="D53">
@@ -9675,7 +9674,7 @@
       </c>
     </row>
     <row r="54" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>0.6</v>
       </c>
       <c r="D54">
@@ -9755,7 +9754,7 @@
       </c>
     </row>
     <row r="55" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>0.38</v>
       </c>
       <c r="D55">
@@ -9835,7 +9834,7 @@
       </c>
     </row>
     <row r="56" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>0.44</v>
       </c>
       <c r="D56">
@@ -9915,7 +9914,7 @@
       </c>
     </row>
     <row r="57" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>0.42</v>
       </c>
       <c r="D57">
@@ -9995,7 +9994,7 @@
       </c>
     </row>
     <row r="58" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>0.69</v>
       </c>
       <c r="D58">
@@ -10075,7 +10074,7 @@
       </c>
     </row>
     <row r="59" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>0.52</v>
       </c>
       <c r="D59">
@@ -10155,7 +10154,7 @@
       </c>
     </row>
     <row r="60" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>0.71</v>
       </c>
       <c r="D60">
@@ -10235,7 +10234,7 @@
       </c>
     </row>
     <row r="61" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>0.36</v>
       </c>
       <c r="D61">
@@ -10315,7 +10314,7 @@
       </c>
     </row>
     <row r="62" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>0.27</v>
       </c>
       <c r="D62">
@@ -10395,7 +10394,7 @@
       </c>
     </row>
     <row r="63" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>0.27</v>
       </c>
       <c r="D63">
@@ -10475,7 +10474,7 @@
       </c>
     </row>
     <row r="64" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>0.27</v>
       </c>
       <c r="D64">
@@ -10555,7 +10554,7 @@
       </c>
     </row>
     <row r="65" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>0.28999999999999998</v>
       </c>
       <c r="D65">
@@ -10635,7 +10634,7 @@
       </c>
     </row>
     <row r="66" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>0.25</v>
       </c>
       <c r="D66">
@@ -10715,7 +10714,7 @@
       </c>
     </row>
     <row r="67" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>0.2</v>
       </c>
       <c r="D67">
@@ -10795,7 +10794,7 @@
       </c>
     </row>
     <row r="68" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>0.26</v>
       </c>
       <c r="D68">
@@ -10875,7 +10874,7 @@
       </c>
     </row>
     <row r="69" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>0.21</v>
       </c>
       <c r="D69">
@@ -10955,7 +10954,7 @@
       </c>
     </row>
     <row r="70" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>0.19</v>
       </c>
       <c r="D70">
@@ -11035,7 +11034,7 @@
       </c>
     </row>
     <row r="71" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>0.21</v>
       </c>
       <c r="D71">
@@ -11115,7 +11114,7 @@
       </c>
     </row>
     <row r="72" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <v>0.3</v>
       </c>
       <c r="D72">
@@ -11195,7 +11194,7 @@
       </c>
     </row>
     <row r="73" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C73" s="17">
+      <c r="C73" s="16">
         <v>0.4</v>
       </c>
       <c r="D73">
@@ -11275,7 +11274,7 @@
       </c>
     </row>
     <row r="74" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>0.35</v>
       </c>
       <c r="D74">
@@ -11355,7 +11354,7 @@
       </c>
     </row>
     <row r="75" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>0.25</v>
       </c>
       <c r="D75">
@@ -11435,7 +11434,7 @@
       </c>
     </row>
     <row r="76" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>0.2</v>
       </c>
       <c r="D76">
@@ -11515,7 +11514,7 @@
       </c>
     </row>
     <row r="77" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>0.22</v>
       </c>
       <c r="D77">
@@ -11595,7 +11594,7 @@
       </c>
     </row>
     <row r="78" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C78" s="17">
+      <c r="C78" s="16">
         <v>0.19</v>
       </c>
       <c r="D78">
@@ -11675,7 +11674,7 @@
       </c>
     </row>
     <row r="79" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <v>0.16</v>
       </c>
       <c r="D79">
@@ -11755,7 +11754,7 @@
       </c>
     </row>
     <row r="80" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <v>0.17</v>
       </c>
       <c r="D80">
@@ -11835,7 +11834,7 @@
       </c>
     </row>
     <row r="81" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C81" s="17">
+      <c r="C81" s="16">
         <v>0.23</v>
       </c>
       <c r="D81">

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF76F393-742A-D84C-9969-A0744A172231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0809A-EAA9-8D48-B571-4ED1E57CB34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -574,9 +574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12646,7 +12646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E97EE-48EF-AA45-8A22-7F369BB74D6D}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A21:C35"/>
     </sheetView>
   </sheetViews>

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0809A-EAA9-8D48-B571-4ED1E57CB34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130AD7D7-7FF3-584A-A08C-848B2B1B73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Year</t>
   </si>
@@ -150,6 +150,9 @@
   <si>
     <t>potato_price_wage_odd</t>
   </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,11 +576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646347E0-CE91-D54E-9EE2-533B6CD58C1B}">
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,21 +602,21 @@
     <col min="16" max="16" width="9.83203125" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="10.1640625" customWidth="1"/>
-    <col min="19" max="21" width="11.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" customWidth="1"/>
-    <col min="24" max="24" width="11.1640625" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="13.83203125" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" customWidth="1"/>
-    <col min="32" max="32" width="12.5" customWidth="1"/>
+    <col min="19" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" customWidth="1"/>
+    <col min="33" max="33" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,55 +675,58 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1821</v>
       </c>
@@ -765,11 +772,12 @@
       <c r="S2" s="11">
         <v>60</v>
       </c>
-      <c r="AI2">
+      <c r="U2" s="17"/>
+      <c r="AJ2">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1822</v>
       </c>
@@ -807,11 +815,12 @@
       <c r="S3" s="11">
         <v>63</v>
       </c>
-      <c r="AI3">
+      <c r="U3" s="17"/>
+      <c r="AJ3">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1823</v>
       </c>
@@ -849,11 +858,12 @@
       <c r="S4" s="11">
         <v>68</v>
       </c>
-      <c r="AI4">
+      <c r="U4" s="17"/>
+      <c r="AJ4">
         <v>521</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1824</v>
       </c>
@@ -891,11 +901,12 @@
       <c r="S5" s="11">
         <v>61</v>
       </c>
-      <c r="AI5">
+      <c r="U5" s="17"/>
+      <c r="AJ5">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1825</v>
       </c>
@@ -936,11 +947,12 @@
       <c r="S6" s="11">
         <v>59</v>
       </c>
-      <c r="AI6">
+      <c r="U6" s="17"/>
+      <c r="AJ6">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1826</v>
       </c>
@@ -978,11 +990,12 @@
       <c r="S7" s="11">
         <v>66</v>
       </c>
-      <c r="AI7">
+      <c r="U7" s="17"/>
+      <c r="AJ7">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1827</v>
       </c>
@@ -1020,11 +1033,12 @@
       <c r="S8" s="11">
         <v>69</v>
       </c>
-      <c r="AI8">
+      <c r="U8" s="17"/>
+      <c r="AJ8">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1828</v>
       </c>
@@ -1062,11 +1076,12 @@
       <c r="S9" s="11">
         <v>65</v>
       </c>
-      <c r="AI9">
+      <c r="U9" s="17"/>
+      <c r="AJ9">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1829</v>
       </c>
@@ -1104,11 +1119,12 @@
       <c r="S10" s="11">
         <v>64</v>
       </c>
-      <c r="AI10">
+      <c r="U10" s="17"/>
+      <c r="AJ10">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1830</v>
       </c>
@@ -1149,11 +1165,12 @@
       <c r="S11" s="11">
         <v>65</v>
       </c>
-      <c r="AI11">
+      <c r="U11" s="17"/>
+      <c r="AJ11">
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1831</v>
       </c>
@@ -1191,11 +1208,12 @@
       <c r="S12" s="11">
         <v>78</v>
       </c>
-      <c r="AI12">
+      <c r="U12" s="17"/>
+      <c r="AJ12">
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1832</v>
       </c>
@@ -1233,11 +1251,12 @@
       <c r="S13" s="11">
         <v>63</v>
       </c>
-      <c r="AI13">
+      <c r="U13" s="17"/>
+      <c r="AJ13">
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1833</v>
       </c>
@@ -1275,11 +1294,12 @@
       <c r="S14" s="11">
         <v>55</v>
       </c>
-      <c r="AI14">
+      <c r="U14" s="17"/>
+      <c r="AJ14">
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1834</v>
       </c>
@@ -1317,11 +1337,12 @@
       <c r="S15" s="11">
         <v>57</v>
       </c>
-      <c r="AI15">
+      <c r="U15" s="17"/>
+      <c r="AJ15">
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1835</v>
       </c>
@@ -1362,11 +1383,12 @@
       <c r="S16" s="11">
         <v>59</v>
       </c>
-      <c r="AI16">
+      <c r="U16" s="17"/>
+      <c r="AJ16">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1836</v>
       </c>
@@ -1404,11 +1426,12 @@
       <c r="S17" s="11">
         <v>65</v>
       </c>
-      <c r="AI17">
+      <c r="U17" s="17"/>
+      <c r="AJ17">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1837</v>
       </c>
@@ -1446,11 +1469,12 @@
       <c r="S18" s="11">
         <v>63</v>
       </c>
-      <c r="AI18">
+      <c r="U18" s="17"/>
+      <c r="AJ18">
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1838</v>
       </c>
@@ -1488,11 +1512,12 @@
       <c r="S19" s="11">
         <v>62</v>
       </c>
-      <c r="AI19">
+      <c r="U19" s="17"/>
+      <c r="AJ19">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1839</v>
       </c>
@@ -1530,29 +1555,30 @@
       <c r="S20" s="11">
         <v>79</v>
       </c>
-      <c r="AC20">
+      <c r="U20" s="17"/>
+      <c r="AD20">
         <v>516</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>197</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>55</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>471</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>95</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>38</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -1599,29 +1625,30 @@
       <c r="S21" s="11">
         <v>71</v>
       </c>
-      <c r="AC21">
+      <c r="U21" s="17"/>
+      <c r="AD21">
         <v>722</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>80</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>38</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>318</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>51</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>21</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1841</v>
       </c>
@@ -1659,35 +1686,36 @@
       <c r="S22" s="11">
         <v>63</v>
       </c>
-      <c r="V22">
+      <c r="U22" s="17"/>
+      <c r="W22">
         <v>2250</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2106</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>651</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>88</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>8</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>399</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>74</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>6</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1842</v>
       </c>
@@ -1725,29 +1753,30 @@
       <c r="S23" s="11">
         <v>55</v>
       </c>
-      <c r="AC23">
+      <c r="U23" s="17"/>
+      <c r="AD23">
         <v>799</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>131</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>54</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>368</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>112</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>46</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1843</v>
       </c>
@@ -1785,29 +1814,30 @@
       <c r="S24" s="11">
         <v>58</v>
       </c>
-      <c r="AC24">
+      <c r="U24" s="17"/>
+      <c r="AD24">
         <v>268</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>9</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>754</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>9</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>6</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1844</v>
       </c>
@@ -1845,29 +1875,30 @@
       <c r="S25" s="11">
         <v>65</v>
       </c>
-      <c r="AC25">
+      <c r="U25" s="17"/>
+      <c r="AD25">
         <v>435</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>102</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>20</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>802</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>39</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>13</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1845</v>
       </c>
@@ -1911,29 +1942,30 @@
       <c r="S26" s="11">
         <v>76</v>
       </c>
-      <c r="AC26">
+      <c r="U26" s="17"/>
+      <c r="AD26">
         <v>228</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>141</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>28</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1420</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>47</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>18</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1846</v>
       </c>
@@ -1977,29 +2009,30 @@
       <c r="S27" s="11">
         <v>113</v>
       </c>
-      <c r="AC27">
+      <c r="U27" s="17"/>
+      <c r="AD27">
         <v>1175</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>143</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>74</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>717</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>85</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>43</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1847</v>
       </c>
@@ -2047,55 +2080,56 @@
         <v>120</v>
       </c>
       <c r="T28" s="12">
+        <v>89</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="12">
         <v>231</v>
       </c>
-      <c r="U28" s="12">
-        <v>89</v>
-      </c>
-      <c r="V28" s="12">
+      <c r="W28" s="12">
         <v>2591</v>
       </c>
-      <c r="W28" s="12">
+      <c r="X28" s="12">
         <v>0</v>
       </c>
-      <c r="X28" s="12">
+      <c r="Y28" s="12">
         <v>2186</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Z28" s="12">
         <v>0</v>
       </c>
-      <c r="Z28" s="12">
+      <c r="AA28" s="12">
         <v>622</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AB28" s="12">
         <v>5691</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AC28" s="12">
         <v>164</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AD28" s="12">
         <v>3701</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AE28" s="12">
         <v>497</v>
       </c>
-      <c r="AE28" s="12">
+      <c r="AF28" s="12">
         <v>240</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AG28" s="12">
         <v>355</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AH28" s="12">
         <v>234</v>
       </c>
-      <c r="AH28" s="12">
+      <c r="AI28" s="12">
         <v>125</v>
       </c>
-      <c r="AI28" s="12">
+      <c r="AJ28" s="12">
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1848</v>
       </c>
@@ -2143,55 +2177,56 @@
         <v>117</v>
       </c>
       <c r="T29">
+        <v>258</v>
+      </c>
+      <c r="U29" s="17"/>
+      <c r="V29">
         <v>365</v>
       </c>
-      <c r="U29">
-        <v>258</v>
-      </c>
-      <c r="V29">
+      <c r="W29">
         <v>2736</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1971</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>639</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6510</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>175</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>2207</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>148</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>12</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>556</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>49</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>9</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1849</v>
       </c>
@@ -2239,55 +2274,56 @@
         <v>127</v>
       </c>
       <c r="T30">
+        <v>219</v>
+      </c>
+      <c r="U30" s="17"/>
+      <c r="V30">
         <v>362</v>
       </c>
-      <c r="U30">
-        <v>219</v>
-      </c>
-      <c r="V30">
+      <c r="W30">
         <v>2771</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1777</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>795</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>6328</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>183</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2845</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>311</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>70</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>428</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>65</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>42</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1850</v>
       </c>
@@ -2347,55 +2383,56 @@
         <v>118</v>
       </c>
       <c r="T31">
+        <v>275</v>
+      </c>
+      <c r="U31" s="17"/>
+      <c r="V31">
         <v>414</v>
       </c>
-      <c r="U31">
-        <v>275</v>
-      </c>
-      <c r="V31">
+      <c r="W31">
         <v>2918</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1876</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>928</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>6945</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>201</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3942</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>351</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>72</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>322</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>150</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>31</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1851</v>
       </c>
@@ -2446,55 +2483,56 @@
         <v>126</v>
       </c>
       <c r="T32">
+        <v>270</v>
+      </c>
+      <c r="U32" s="17"/>
+      <c r="V32">
         <v>434</v>
       </c>
-      <c r="U32">
-        <v>270</v>
-      </c>
-      <c r="V32">
+      <c r="W32">
         <v>2967</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2122</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>0</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1085</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>7471</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>235</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>5385</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>292</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>13</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>173</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>145</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>12</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>609</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1852</v>
       </c>
@@ -2545,55 +2583,56 @@
         <v>109</v>
       </c>
       <c r="T33">
+        <v>275</v>
+      </c>
+      <c r="U33" s="17"/>
+      <c r="V33">
         <v>429</v>
       </c>
-      <c r="U33">
-        <v>275</v>
-      </c>
-      <c r="V33">
+      <c r="W33">
         <v>3095</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>2614</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>1073</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>8176</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>278</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>4833</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>146</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>21</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>102</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>62</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>14</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1853</v>
       </c>
@@ -2644,55 +2683,56 @@
         <v>113</v>
       </c>
       <c r="T34">
+        <v>279</v>
+      </c>
+      <c r="U34" s="17"/>
+      <c r="V34">
         <v>447</v>
       </c>
-      <c r="U34">
-        <v>279</v>
-      </c>
-      <c r="V34">
+      <c r="W34">
         <v>3383</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>3143</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1145</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>8661</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>296</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>4728</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>184</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>29</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>135</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>50</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>29</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1854</v>
       </c>
@@ -2743,55 +2783,56 @@
         <v>95</v>
       </c>
       <c r="T35">
+        <v>308</v>
+      </c>
+      <c r="U35" s="17"/>
+      <c r="V35">
         <v>449</v>
       </c>
-      <c r="U35">
-        <v>308</v>
-      </c>
-      <c r="V35">
+      <c r="W35">
         <v>3498</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>1518</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>3722</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1777</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1343</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>8630</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>311</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>2939</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>171</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>26</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>252</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>75</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>26</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>541</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1855</v>
       </c>
@@ -2842,55 +2883,56 @@
         <v>89</v>
       </c>
       <c r="T36">
+        <v>309</v>
+      </c>
+      <c r="U36" s="17"/>
+      <c r="V36">
         <v>459</v>
       </c>
-      <c r="U36">
-        <v>309</v>
-      </c>
-      <c r="V36">
+      <c r="W36">
         <v>3564</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>1561</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>3602</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1734</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>1178</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>8367</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>284</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>2990</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>401</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>15</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>312</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>289</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>15</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1856</v>
       </c>
@@ -2950,55 +2992,56 @@
         <v>71</v>
       </c>
       <c r="T37">
+        <v>345</v>
+      </c>
+      <c r="U37" s="17"/>
+      <c r="V37">
         <v>496</v>
       </c>
-      <c r="U37">
-        <v>345</v>
-      </c>
-      <c r="V37">
+      <c r="W37">
         <v>3588</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>1580</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3694</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>1655</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>919</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>8908</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>270</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>3491</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>359</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>9</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>359</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>246</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>9</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1857</v>
       </c>
@@ -3049,55 +3092,56 @@
         <v>81</v>
       </c>
       <c r="T38">
+        <v>359</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38">
         <v>511</v>
       </c>
-      <c r="U38">
-        <v>359</v>
-      </c>
-      <c r="V38">
+      <c r="W38">
         <v>3621</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>1605</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>3452</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>1538</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>1255</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>9491</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>243</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>2843</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>518</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>27</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>334</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>178</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>14</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1858</v>
       </c>
@@ -3148,55 +3192,56 @@
         <v>74</v>
       </c>
       <c r="T39">
+        <v>360</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39">
         <v>512</v>
       </c>
-      <c r="U39">
-        <v>360</v>
-      </c>
-      <c r="V39">
+      <c r="W39">
         <v>3667</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>1635</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>3495</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>1522</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>1410</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>9563</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>228</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>4159</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>339</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>17</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>298</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>110</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>19</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1859</v>
       </c>
@@ -3247,55 +3292,56 @@
         <v>69</v>
       </c>
       <c r="T40">
+        <v>374</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40">
         <v>520</v>
       </c>
-      <c r="U40">
-        <v>374</v>
-      </c>
-      <c r="V40">
+      <c r="W40">
         <v>3816</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>1690</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>3593</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>1564</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>1266</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>10252</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>219</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>4775</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>238</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>25</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>320</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>42</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>25</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1860</v>
       </c>
@@ -3346,55 +3392,56 @@
         <v>71</v>
       </c>
       <c r="T41">
+        <v>361</v>
+      </c>
+      <c r="U41" s="17"/>
+      <c r="V41">
         <v>507</v>
       </c>
-      <c r="U41">
-        <v>361</v>
-      </c>
-      <c r="V41">
+      <c r="W41">
         <v>3606</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>1626</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>3542</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>1567</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>1271</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>10061</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>194</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>5072</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>362</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>25</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>161</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>61</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>8</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1861</v>
       </c>
@@ -3445,55 +3492,56 @@
         <v>78</v>
       </c>
       <c r="T42">
+        <v>349</v>
+      </c>
+      <c r="U42" s="17"/>
+      <c r="V42">
         <v>496</v>
       </c>
-      <c r="U42">
-        <v>349</v>
-      </c>
-      <c r="V42">
+      <c r="W42">
         <v>3472</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>1545</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>3556</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>1528</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>1102</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>10371</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>190</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>5365</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>252</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>10</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>236</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>128</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>6</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1862</v>
       </c>
@@ -3544,55 +3592,56 @@
         <v>76</v>
       </c>
       <c r="T43">
+        <v>311</v>
+      </c>
+      <c r="U43" s="17"/>
+      <c r="V43">
         <v>469</v>
       </c>
-      <c r="U43">
-        <v>311</v>
-      </c>
-      <c r="V43">
+      <c r="W43">
         <v>3255</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>1487</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>3456</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>1495</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>1154</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>9917</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>175</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>8340</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>230</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>232</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>150</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>181</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>232</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>626</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1863</v>
       </c>
@@ -3643,55 +3692,55 @@
         <v>69</v>
       </c>
       <c r="T44">
+        <v>315</v>
+      </c>
+      <c r="V44">
         <v>466</v>
       </c>
-      <c r="U44">
-        <v>315</v>
-      </c>
-      <c r="V44">
+      <c r="W44">
         <v>3144</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>1397</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>3308</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>1420</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>1067</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>9649</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>166</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>6490</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>136</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>71</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>161</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>62</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>39</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1864</v>
       </c>
@@ -3742,55 +3791,55 @@
         <v>70</v>
       </c>
       <c r="T45">
+        <v>322</v>
+      </c>
+      <c r="V45">
         <v>466</v>
       </c>
-      <c r="U45">
-        <v>322</v>
-      </c>
-      <c r="V45">
+      <c r="W45">
         <v>3262</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>1349</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>3367</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>1435</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>1058</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>10424</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>171</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>6044</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>214</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>12</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>63</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>66</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>12</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1865</v>
       </c>
@@ -3841,55 +3890,55 @@
         <v>72</v>
       </c>
       <c r="T46">
+        <v>330</v>
+      </c>
+      <c r="V46">
         <v>474</v>
       </c>
-      <c r="U46">
-        <v>330</v>
-      </c>
-      <c r="V46">
+      <c r="W46">
         <v>3498</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>1387</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>3694</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>1579</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>1306</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>10682</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>171</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>6002</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>269</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>50</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>62</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>76</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>25</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>658</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1866</v>
       </c>
@@ -3949,55 +3998,55 @@
         <v>61</v>
       </c>
       <c r="T47">
+        <v>323</v>
+      </c>
+      <c r="V47">
         <v>466</v>
       </c>
-      <c r="U47">
-        <v>323</v>
-      </c>
-      <c r="V47">
+      <c r="W47">
         <v>3746</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>1483</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>4274</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>1799</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>1497</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>10890</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>187</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>6575</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>329</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>38</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>59</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>31</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>36</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>699</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1867</v>
       </c>
@@ -4048,55 +4097,55 @@
         <v>69</v>
       </c>
       <c r="T48">
+        <v>308</v>
+      </c>
+      <c r="V48">
         <v>449</v>
       </c>
-      <c r="U48">
-        <v>308</v>
-      </c>
-      <c r="V48">
+      <c r="W48">
         <v>3708</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>1521</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>4836</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>2034</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>1235</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>10334</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>190</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>7022</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>360</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>71</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>52</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>57</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>30</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>722</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1868</v>
       </c>
@@ -4147,55 +4196,55 @@
         <v>75</v>
       </c>
       <c r="T49">
+        <v>320</v>
+      </c>
+      <c r="V49">
         <v>459</v>
       </c>
-      <c r="U49">
-        <v>320</v>
-      </c>
-      <c r="V49">
+      <c r="W49">
         <v>3647</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>1476</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>4901</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>2052</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>870</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>10603</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>199</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>7103</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>159</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>36</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>52</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>75</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>35</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>665</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1869</v>
       </c>
@@ -4246,55 +4295,55 @@
         <v>90</v>
       </c>
       <c r="T50">
+        <v>320</v>
+      </c>
+      <c r="V50">
         <v>463</v>
       </c>
-      <c r="U50">
-        <v>320</v>
-      </c>
-      <c r="V50">
+      <c r="W50">
         <v>3734</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>1506</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>4651</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>1938</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>1082</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>10802</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>206</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>8003</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>213</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>41</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>51</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>93</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>40</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1870</v>
       </c>
@@ -4345,55 +4394,55 @@
         <v>97</v>
       </c>
       <c r="T51">
+        <v>319</v>
+      </c>
+      <c r="V51">
         <v>470</v>
       </c>
-      <c r="U51">
-        <v>319</v>
-      </c>
-      <c r="V51">
+      <c r="W51">
         <v>3800</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>1529</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>4337</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>1807</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>1461</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>11159</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>212</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>7704</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>259</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>55</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>50</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>110</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>45</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1871</v>
       </c>
@@ -4444,55 +4493,55 @@
         <v>89</v>
       </c>
       <c r="T52">
+        <v>322</v>
+      </c>
+      <c r="V52">
         <v>473</v>
       </c>
-      <c r="U52">
-        <v>322</v>
-      </c>
-      <c r="V52">
+      <c r="W52">
         <v>3976</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>1546</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>4233</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>1752</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>1621</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>11717</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>231</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>8848</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>401</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>75</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>49</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>128</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>50</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>725</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1872</v>
       </c>
@@ -4543,55 +4592,55 @@
         <v>88</v>
       </c>
       <c r="T53">
+        <v>301</v>
+      </c>
+      <c r="V53">
         <v>458</v>
       </c>
-      <c r="U53">
-        <v>301</v>
-      </c>
-      <c r="V53">
+      <c r="W53">
         <v>4059</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>1552</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>4263</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>1742</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>1389</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>11738</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>239</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>9584</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>784</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>95</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>48</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>145</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>55</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>735</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1873</v>
       </c>
@@ -4642,55 +4691,55 @@
         <v>92</v>
       </c>
       <c r="T54">
+        <v>272</v>
+      </c>
+      <c r="V54">
         <v>424</v>
       </c>
-      <c r="U54">
-        <v>272</v>
-      </c>
-      <c r="V54">
+      <c r="W54">
         <v>4147</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>1528</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>4485</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>1822</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>1044</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>11863</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>243</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>8746</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>603</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>139</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>47</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>163</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>60</v>
       </c>
-      <c r="AI54">
+      <c r="AJ54">
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1874</v>
       </c>
@@ -4741,55 +4790,55 @@
         <v>85</v>
       </c>
       <c r="T55">
+        <v>270</v>
+      </c>
+      <c r="V55">
         <v>418</v>
       </c>
-      <c r="U55">
-        <v>270</v>
-      </c>
-      <c r="V55">
+      <c r="W55">
         <v>4125</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>1491</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>4442</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>1818</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>1099</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>12068</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>257</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>9113</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>350</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>114</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>46</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>181</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>65</v>
       </c>
-      <c r="AI55">
+      <c r="AJ55">
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1875</v>
       </c>
@@ -4840,55 +4889,55 @@
         <v>93</v>
       </c>
       <c r="T56">
+        <v>272</v>
+      </c>
+      <c r="V56">
         <v>423</v>
       </c>
-      <c r="U56">
-        <v>272</v>
-      </c>
-      <c r="V56">
+      <c r="W56">
         <v>4115</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>1530</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>4254</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>1750</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>1252</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>12139</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>271</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>11251</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>543</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>122</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>45</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>198</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>70</v>
       </c>
-      <c r="AI56">
+      <c r="AJ56">
         <v>710</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1876</v>
       </c>
@@ -4948,55 +4997,55 @@
         <v>88</v>
       </c>
       <c r="T57">
+        <v>266</v>
+      </c>
+      <c r="V57">
         <v>420</v>
       </c>
-      <c r="U57">
-        <v>266</v>
-      </c>
-      <c r="V57">
+      <c r="W57">
         <v>4117</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>1533</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>4009</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>1639</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>1425</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>13619</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>264</v>
       </c>
-      <c r="AC57">
+      <c r="AD57">
         <v>10575</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>670</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>81</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>45</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>216</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>75</v>
       </c>
-      <c r="AI57">
+      <c r="AJ57">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>1877</v>
       </c>
@@ -5047,55 +5096,55 @@
         <v>90</v>
       </c>
       <c r="T58" s="14">
+        <v>262</v>
+      </c>
+      <c r="V58" s="14">
         <v>415</v>
       </c>
-      <c r="U58" s="14">
-        <v>262</v>
-      </c>
-      <c r="V58" s="14">
+      <c r="W58" s="14">
         <v>3998</v>
       </c>
-      <c r="W58" s="14">
+      <c r="X58" s="14">
         <v>1523</v>
       </c>
-      <c r="X58" s="14">
+      <c r="Y58" s="14">
         <v>3988</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="Z58" s="14">
         <v>1629</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="AA58" s="14">
         <v>1469</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AB58" s="14">
         <v>13566</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AC58" s="14">
         <v>267</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AD58" s="14">
         <v>9836</v>
       </c>
-      <c r="AD58" s="14">
+      <c r="AE58" s="14">
         <v>778</v>
       </c>
-      <c r="AE58" s="14">
+      <c r="AF58" s="14">
         <v>208</v>
       </c>
-      <c r="AF58" s="14">
+      <c r="AG58" s="14">
         <v>44</v>
       </c>
-      <c r="AG58" s="14">
+      <c r="AH58" s="14">
         <v>233</v>
       </c>
-      <c r="AH58" s="14">
+      <c r="AI58" s="14">
         <v>80</v>
       </c>
-      <c r="AI58" s="14">
+      <c r="AJ58" s="14">
         <v>706</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>1878</v>
       </c>
@@ -5146,55 +5195,55 @@
         <v>97</v>
       </c>
       <c r="T59" s="14">
+        <v>254</v>
+      </c>
+      <c r="V59" s="14">
         <v>404</v>
       </c>
-      <c r="U59" s="14">
-        <v>254</v>
-      </c>
-      <c r="V59" s="14">
+      <c r="W59" s="14">
         <v>3985</v>
       </c>
-      <c r="W59" s="14">
+      <c r="X59" s="14">
         <v>1484</v>
       </c>
-      <c r="X59" s="14">
+      <c r="Y59" s="14">
         <v>4095</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="Z59" s="14">
         <v>1654</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="AA59" s="14">
         <v>1269</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AB59" s="14">
         <v>13711</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AC59" s="14">
         <v>279</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AD59" s="14">
         <v>10545</v>
       </c>
-      <c r="AD59" s="14">
+      <c r="AE59" s="14">
         <v>858</v>
       </c>
-      <c r="AE59" s="14">
+      <c r="AF59" s="14">
         <v>179</v>
       </c>
-      <c r="AF59" s="14">
+      <c r="AG59" s="14">
         <v>43</v>
       </c>
-      <c r="AG59" s="14">
+      <c r="AH59" s="14">
         <v>251</v>
       </c>
-      <c r="AH59" s="14">
+      <c r="AI59" s="14">
         <v>85</v>
       </c>
-      <c r="AI59" s="14">
+      <c r="AJ59" s="14">
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>1879</v>
       </c>
@@ -5245,55 +5294,55 @@
         <v>101</v>
       </c>
       <c r="T60" s="14">
+        <v>252</v>
+      </c>
+      <c r="V60" s="14">
         <v>396</v>
       </c>
-      <c r="U60" s="14">
-        <v>252</v>
-      </c>
-      <c r="V60" s="14">
+      <c r="W60" s="14">
         <v>4068</v>
       </c>
-      <c r="W60" s="14">
+      <c r="X60" s="14">
         <v>1465</v>
       </c>
-      <c r="X60" s="14">
+      <c r="Y60" s="14">
         <v>4018</v>
       </c>
-      <c r="Y60" s="14">
+      <c r="Z60" s="14">
         <v>1625</v>
       </c>
-      <c r="Z60" s="14">
+      <c r="AA60" s="14">
         <v>1072</v>
       </c>
-      <c r="AA60" s="14">
+      <c r="AB60" s="14">
         <v>13783</v>
       </c>
-      <c r="AB60" s="14">
+      <c r="AC60" s="14">
         <v>279</v>
       </c>
-      <c r="AC60" s="14">
+      <c r="AD60" s="14">
         <v>10008</v>
       </c>
-      <c r="AD60" s="14">
+      <c r="AE60" s="14">
         <v>650</v>
       </c>
-      <c r="AE60" s="14">
+      <c r="AF60" s="14">
         <v>166</v>
       </c>
-      <c r="AF60" s="14">
+      <c r="AG60" s="14">
         <v>42</v>
       </c>
-      <c r="AG60" s="14">
+      <c r="AH60" s="14">
         <v>269</v>
       </c>
-      <c r="AH60" s="14">
+      <c r="AI60" s="14">
         <v>91</v>
       </c>
-      <c r="AI60" s="14">
+      <c r="AJ60" s="14">
         <v>640</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1880</v>
       </c>
@@ -5344,55 +5393,55 @@
         <v>87</v>
       </c>
       <c r="T61">
+        <v>247</v>
+      </c>
+      <c r="V61">
         <v>385</v>
       </c>
-      <c r="U61">
-        <v>247</v>
-      </c>
-      <c r="V61">
+      <c r="W61">
         <v>3922</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>1398</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>3562</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>1440</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>850</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>13430</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>266</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>9242</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>632</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>140</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>41</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>286</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>96</v>
       </c>
-      <c r="AI61">
+      <c r="AJ61">
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1881</v>
       </c>
@@ -5443,55 +5492,55 @@
         <v>83</v>
       </c>
       <c r="T62">
+        <v>257</v>
+      </c>
+      <c r="V62">
         <v>391</v>
       </c>
-      <c r="U62">
-        <v>257</v>
-      </c>
-      <c r="V62">
+      <c r="W62">
         <v>3957</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>1392</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>3256</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>1338</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>1096</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>13972</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>266</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>7715</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>637</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>101</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>40</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>304</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>101</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1882</v>
       </c>
@@ -5542,55 +5591,55 @@
         <v>74</v>
       </c>
       <c r="T63">
+        <v>252</v>
+      </c>
+      <c r="V63">
         <v>385</v>
       </c>
-      <c r="U63">
-        <v>252</v>
-      </c>
-      <c r="V63">
+      <c r="W63">
         <v>3987</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>1399</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>3072</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>1261</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>1430</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>13999</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>263</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>9899</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>926</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>106</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>39</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>322</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>106</v>
       </c>
-      <c r="AI63">
+      <c r="AJ63">
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1883</v>
       </c>
@@ -5641,55 +5690,55 @@
         <v>73</v>
       </c>
       <c r="T64">
+        <v>242</v>
+      </c>
+      <c r="V64">
         <v>379</v>
       </c>
-      <c r="U64">
-        <v>242</v>
-      </c>
-      <c r="V64">
+      <c r="W64">
         <v>4097</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>1402</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>3219</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>1330</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>1348</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>13382</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>263</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <v>8985</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>819</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>299</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>38</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>339</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>111</v>
       </c>
-      <c r="AI64">
+      <c r="AJ64">
         <v>610</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1884</v>
       </c>
@@ -5740,55 +5789,55 @@
         <v>67</v>
       </c>
       <c r="T65">
+        <v>240</v>
+      </c>
+      <c r="V65">
         <v>375</v>
       </c>
-      <c r="U65">
-        <v>240</v>
-      </c>
-      <c r="V65">
+      <c r="W65">
         <v>4113</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>1357</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>3245</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>1333</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>1307</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>12747</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>254</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <v>7689</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>737</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>145</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>38</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>357</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>116</v>
       </c>
-      <c r="AI65">
+      <c r="AJ65">
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1885</v>
       </c>
@@ -5839,55 +5888,55 @@
         <v>71</v>
       </c>
       <c r="T66">
+        <v>239</v>
+      </c>
+      <c r="V66">
         <v>374</v>
       </c>
-      <c r="U66">
-        <v>239</v>
-      </c>
-      <c r="V66">
+      <c r="W66">
         <v>4229</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>1417</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>3478</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>1421</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>1269</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>13851</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>264</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>9771</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>901</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>121</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>37</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>374</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>121</v>
       </c>
-      <c r="AI66">
+      <c r="AJ66">
         <v>625</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1886</v>
       </c>
@@ -5944,55 +5993,55 @@
         <v>72</v>
       </c>
       <c r="T67">
+        <v>239</v>
+      </c>
+      <c r="V67">
         <v>375</v>
       </c>
-      <c r="U67">
-        <v>239</v>
-      </c>
-      <c r="V67">
+      <c r="W67">
         <v>4184</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>1419</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>3366</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>1386</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>1263</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>13910</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>266</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>6580</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>871</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>126</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>36</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>392</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>126</v>
       </c>
-      <c r="AI67">
+      <c r="AJ67">
         <v>616</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1887</v>
       </c>
@@ -6040,55 +6089,55 @@
         <v>65</v>
       </c>
       <c r="T68">
+        <v>238</v>
+      </c>
+      <c r="V68">
         <v>377</v>
       </c>
-      <c r="U68">
-        <v>238</v>
-      </c>
-      <c r="V68">
+      <c r="W68">
         <v>4157</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>1394</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>3378</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>1382</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>1408</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>14461</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>272</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <v>7611</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>952</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>281</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <v>35</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>410</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>131</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1888</v>
       </c>
@@ -6136,55 +6185,55 @@
         <v>68</v>
       </c>
       <c r="T69">
+        <v>239</v>
+      </c>
+      <c r="V69">
         <v>378</v>
       </c>
-      <c r="U69">
-        <v>239</v>
-      </c>
-      <c r="V69">
+      <c r="W69">
         <v>4099</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>1385</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>3627</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>1485</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>1398</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>14486</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>296</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <v>6898</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>1049</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>401</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>34</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>427</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>136</v>
       </c>
-      <c r="AI69">
+      <c r="AJ69">
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1889</v>
       </c>
@@ -6232,55 +6281,55 @@
         <v>74</v>
       </c>
       <c r="T70">
+        <v>235</v>
+      </c>
+      <c r="V70">
         <v>373</v>
       </c>
-      <c r="U70">
-        <v>235</v>
-      </c>
-      <c r="V70">
+      <c r="W70">
         <v>4094</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>1364</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>3789</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>1542</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>1381</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>14857</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>304</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>7990</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>1011</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>302</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>33</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>445</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>141</v>
       </c>
-      <c r="AI70">
+      <c r="AJ70">
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1890</v>
       </c>
@@ -6328,55 +6377,55 @@
         <v>73</v>
       </c>
       <c r="T71">
+        <v>232</v>
+      </c>
+      <c r="V71">
         <v>372</v>
       </c>
-      <c r="U71">
-        <v>232</v>
-      </c>
-      <c r="V71">
+      <c r="W71">
         <v>4240</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>1401</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>4323</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>1752</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>1570</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>15408</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>327</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>7812</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>776</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>188</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>32</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>462</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>146</v>
       </c>
-      <c r="AI71">
+      <c r="AJ71">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1891</v>
       </c>
@@ -6424,55 +6473,55 @@
         <v>71</v>
       </c>
       <c r="T72">
+        <v>222</v>
+      </c>
+      <c r="V72">
         <v>364</v>
       </c>
-      <c r="U72">
-        <v>222</v>
-      </c>
-      <c r="V72">
+      <c r="W72">
         <v>4449</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>1442</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>4723</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>1922</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>1368</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>15276</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>336</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>7450</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>860</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>176</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <v>31</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>480</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>152</v>
       </c>
-      <c r="AI72">
+      <c r="AJ72">
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1892</v>
       </c>
@@ -6520,55 +6569,55 @@
         <v>70</v>
       </c>
       <c r="T73">
+        <v>218</v>
+      </c>
+      <c r="V73">
         <v>357</v>
       </c>
-      <c r="U73">
-        <v>218</v>
-      </c>
-      <c r="V73">
+      <c r="W73">
         <v>4531</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>1451</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>4828</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>1970</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>1113</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>15336</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>333</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <v>6704</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>1292</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>172</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>31</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>498</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>157</v>
       </c>
-      <c r="AI73">
+      <c r="AJ73">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1893</v>
       </c>
@@ -6616,55 +6665,55 @@
         <v>67</v>
       </c>
       <c r="T74">
+        <v>212</v>
+      </c>
+      <c r="V74">
         <v>350</v>
       </c>
-      <c r="U74">
-        <v>212</v>
-      </c>
-      <c r="V74">
+      <c r="W74">
         <v>4464</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>1441</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>4421</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>1822</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>1152</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>16097</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>323</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>6350</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>1210</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>169</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>30</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>515</v>
       </c>
-      <c r="AH74">
+      <c r="AI74">
         <v>162</v>
       </c>
-      <c r="AI74">
+      <c r="AJ74">
         <v>628</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1894</v>
       </c>
@@ -6712,55 +6761,55 @@
         <v>66</v>
       </c>
       <c r="T75">
+        <v>211</v>
+      </c>
+      <c r="V75">
         <v>355</v>
       </c>
-      <c r="U75">
-        <v>211</v>
-      </c>
-      <c r="V75">
+      <c r="W75">
         <v>4392</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>1447</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>4105</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>1686</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>1389</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>16181</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>319</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>5988</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>1867</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>190</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <v>29</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>533</v>
       </c>
-      <c r="AH75">
+      <c r="AI75">
         <v>167</v>
       </c>
-      <c r="AI75">
+      <c r="AJ75">
         <v>663</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1895</v>
       </c>
@@ -6808,55 +6857,55 @@
         <v>69</v>
       </c>
       <c r="T76">
+        <v>208</v>
+      </c>
+      <c r="V76">
         <v>351</v>
       </c>
-      <c r="U76">
-        <v>208</v>
-      </c>
-      <c r="V76">
+      <c r="W76">
         <v>4358</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>1434</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>3913</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>1603</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>1338</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>16370</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>305</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <v>6899</v>
       </c>
-      <c r="AD76">
+      <c r="AE76">
         <v>1345</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>247</v>
       </c>
-      <c r="AF76">
+      <c r="AG76">
         <v>28</v>
       </c>
-      <c r="AG76">
+      <c r="AH76">
         <v>550</v>
       </c>
-      <c r="AH76">
+      <c r="AI76">
         <v>172</v>
       </c>
-      <c r="AI76">
+      <c r="AJ76">
         <v>677</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1896</v>
       </c>
@@ -6913,55 +6962,55 @@
         <v>69</v>
       </c>
       <c r="T77">
+        <v>206</v>
+      </c>
+      <c r="V77">
         <v>349</v>
       </c>
-      <c r="U77">
-        <v>206</v>
-      </c>
-      <c r="V77">
+      <c r="W77">
         <v>4408</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>1430</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>4081</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>1656</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>1405</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>17538</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>306</v>
       </c>
-      <c r="AC77">
+      <c r="AD77">
         <v>5530</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>1128</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>246</v>
       </c>
-      <c r="AF77">
+      <c r="AG77">
         <v>27</v>
       </c>
-      <c r="AG77">
+      <c r="AH77">
         <v>568</v>
       </c>
-      <c r="AH77">
+      <c r="AI77">
         <v>177</v>
       </c>
-      <c r="AI77">
+      <c r="AJ77">
         <v>638</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1897</v>
       </c>
@@ -7009,55 +7058,55 @@
         <v>68</v>
       </c>
       <c r="T78">
+        <v>199</v>
+      </c>
+      <c r="V78">
         <v>340</v>
       </c>
-      <c r="U78">
-        <v>199</v>
-      </c>
-      <c r="V78">
+      <c r="W78">
         <v>4465</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>1435</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>4158</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>1703</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>1327</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>17777</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>299</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>5274</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>1209</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>233</v>
       </c>
-      <c r="AF78">
+      <c r="AG78">
         <v>26</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>586</v>
       </c>
-      <c r="AH78">
+      <c r="AI78">
         <v>182</v>
       </c>
-      <c r="AI78">
+      <c r="AJ78">
         <v>639</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1898</v>
       </c>
@@ -7105,55 +7154,55 @@
         <v>63</v>
       </c>
       <c r="T79">
+        <v>195</v>
+      </c>
+      <c r="V79">
         <v>337</v>
       </c>
-      <c r="U79">
-        <v>195</v>
-      </c>
-      <c r="V79">
+      <c r="W79">
         <v>4487</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>1431</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>4288</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>1746</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>1254</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>17687</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>296</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>4968</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>1180</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>275</v>
       </c>
-      <c r="AF79">
+      <c r="AG79">
         <v>25</v>
       </c>
-      <c r="AG79">
+      <c r="AH79">
         <v>603</v>
       </c>
-      <c r="AH79">
+      <c r="AI79">
         <v>187</v>
       </c>
-      <c r="AI79">
+      <c r="AJ79">
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1899</v>
       </c>
@@ -7201,55 +7250,55 @@
         <v>67</v>
       </c>
       <c r="T80">
+        <v>194</v>
+      </c>
+      <c r="V80">
         <v>335</v>
       </c>
-      <c r="U80">
-        <v>194</v>
-      </c>
-      <c r="V80">
+      <c r="W80">
         <v>4507</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>1444</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>4365</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>1785</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>1363</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>18234</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>304</v>
       </c>
-      <c r="AC80">
+      <c r="AD80">
         <v>5516</v>
       </c>
-      <c r="AD80">
+      <c r="AE80">
         <v>999</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>197</v>
       </c>
-      <c r="AF80">
+      <c r="AG80">
         <v>24</v>
       </c>
-      <c r="AG80">
+      <c r="AH80">
         <v>621</v>
       </c>
-      <c r="AH80">
+      <c r="AI80">
         <v>192</v>
       </c>
-      <c r="AI80">
+      <c r="AJ80">
         <v>645</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1900</v>
       </c>
@@ -7297,51 +7346,51 @@
         <v>69</v>
       </c>
       <c r="T81">
+        <v>191</v>
+      </c>
+      <c r="V81">
         <v>334</v>
       </c>
-      <c r="U81">
-        <v>191</v>
-      </c>
-      <c r="V81">
+      <c r="W81">
         <v>4609</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>1458</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>4387</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>1798</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>1269</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>18547</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>306</v>
       </c>
-      <c r="AC81">
+      <c r="AD81">
         <v>5325</v>
       </c>
-      <c r="AD81">
+      <c r="AE81">
         <v>1327</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>284</v>
       </c>
-      <c r="AF81">
+      <c r="AG81">
         <v>24</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>639</v>
       </c>
-      <c r="AH81">
+      <c r="AI81">
         <v>197</v>
       </c>
-      <c r="AI81">
+      <c r="AJ81">
         <v>683</v>
       </c>
     </row>

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130AD7D7-7FF3-584A-A08C-848B2B1B73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37A147-9C99-374B-A259-B4ECE760CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33420" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="8900" yWindow="500" windowWidth="31200" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>wheat_price</t>
   </si>
   <si>
-    <t>wheat_imports</t>
-  </si>
-  <si>
     <t>barley_imports</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>wheat_imports(000cwt)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,6 +262,7 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +580,8 @@
   <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21:J21"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -663,22 +664,22 @@
         <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
@@ -705,25 +706,25 @@
         <v>9</v>
       </c>
       <c r="AD1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" t="s">
-        <v>28</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -749,8 +750,8 @@
         <f>23.67/4.85</f>
         <v>4.880412371134021</v>
       </c>
-      <c r="H2" s="9">
-        <v>2.76</v>
+      <c r="H2" s="18">
+        <v>1.6</v>
       </c>
       <c r="I2" s="10">
         <v>1.23</v>
@@ -796,8 +797,8 @@
       <c r="G3">
         <v>6.8</v>
       </c>
-      <c r="H3" s="9">
-        <v>2.92</v>
+      <c r="H3" s="18">
+        <v>1.25</v>
       </c>
       <c r="I3" s="10">
         <v>1.29</v>
@@ -839,8 +840,8 @@
       <c r="G4">
         <v>3.85</v>
       </c>
-      <c r="H4" s="9">
-        <v>2.63</v>
+      <c r="H4" s="18">
+        <v>1.57</v>
       </c>
       <c r="I4" s="10">
         <v>1.38</v>
@@ -882,8 +883,8 @@
       <c r="G5">
         <v>7.7</v>
       </c>
-      <c r="H5" s="9">
-        <v>3.01</v>
+      <c r="H5" s="18">
+        <v>1.62</v>
       </c>
       <c r="I5" s="10">
         <v>1.24</v>
@@ -928,8 +929,8 @@
       <c r="G6">
         <v>5.3</v>
       </c>
-      <c r="H6" s="9">
-        <v>2.72</v>
+      <c r="H6" s="18">
+        <v>1.69</v>
       </c>
       <c r="I6" s="10">
         <v>1.21</v>
@@ -971,8 +972,8 @@
       <c r="G7">
         <v>7.7</v>
       </c>
-      <c r="H7" s="9">
-        <v>2.82</v>
+      <c r="H7" s="18">
+        <v>1.82</v>
       </c>
       <c r="I7" s="10">
         <v>1.34</v>
@@ -1014,8 +1015,8 @@
       <c r="G8">
         <v>8.48</v>
       </c>
-      <c r="H8" s="9">
-        <v>2.7</v>
+      <c r="H8" s="18">
+        <v>1.62</v>
       </c>
       <c r="I8" s="10">
         <v>1.42</v>
@@ -1057,8 +1058,8 @@
       <c r="G9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H9" s="9">
-        <v>2.69</v>
+      <c r="H9" s="18">
+        <v>1.38</v>
       </c>
       <c r="I9" s="10">
         <v>1.33</v>
@@ -7437,7 +7438,7 @@
   <sheetData>
     <row r="1" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
         <v>11</v>
@@ -8956,10 +8957,10 @@
         <v>0.49</v>
       </c>
       <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
         <v>31</v>
-      </c>
-      <c r="P44" t="s">
-        <v>32</v>
       </c>
       <c r="S44">
         <v>7.7290000000000001</v>

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37A147-9C99-374B-A259-B4ECE760CF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01099AF-82EF-D84A-BCF5-DD7025902D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="500" windowWidth="31200" windowHeight="19020" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
+    <workbookView xWindow="2400" yWindow="500" windowWidth="31200" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,8 +580,8 @@
   <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_data/Combine_data_set.xlsx
+++ b/01_data/Combine_data_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Trinity_College_Dublin/Dissertation_Summer2024/01_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF6B8D-319E-2943-964A-377D3F976B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62661009-6663-BD4C-8D11-AC711520BEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="27500" windowHeight="18960" xr2:uid="{113A309E-1027-1043-8462-5BFA9D9E26EE}"/>
   </bookViews>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
